--- a/csharpZuora/移行ツール仕様書.xlsx
+++ b/csharpZuora/移行ツール仕様書.xlsx
@@ -17,21 +17,22 @@
     <sheet name="csvDB" sheetId="54" r:id="rId3"/>
     <sheet name="件数確認" sheetId="55" r:id="rId4"/>
     <sheet name="_workOption" sheetId="52" r:id="rId5"/>
-    <sheet name="登録　仕様" sheetId="48" r:id="rId6"/>
-    <sheet name="更新仕様" sheetId="34" r:id="rId7"/>
-    <sheet name="抽出仕様" sheetId="49" r:id="rId8"/>
-    <sheet name="C#登録" sheetId="50" r:id="rId9"/>
-    <sheet name="C#登録bk" sheetId="40" r:id="rId10"/>
-    <sheet name="C#更新" sheetId="41" r:id="rId11"/>
-    <sheet name="更新用CSVヘッダー" sheetId="42" r:id="rId12"/>
-    <sheet name="受注ヘッダ" sheetId="43" r:id="rId13"/>
-    <sheet name="受注明細" sheetId="44" r:id="rId14"/>
-    <sheet name="プロダクトサンプル" sheetId="47" r:id="rId15"/>
+    <sheet name="エラー漏れ" sheetId="57" r:id="rId6"/>
+    <sheet name="登録　仕様" sheetId="48" r:id="rId7"/>
+    <sheet name="更新仕様" sheetId="34" r:id="rId8"/>
+    <sheet name="抽出仕様" sheetId="49" r:id="rId9"/>
+    <sheet name="C#登録" sheetId="50" r:id="rId10"/>
+    <sheet name="C#登録bk" sheetId="40" r:id="rId11"/>
+    <sheet name="C#更新" sheetId="41" r:id="rId12"/>
+    <sheet name="更新用CSVヘッダー" sheetId="42" r:id="rId13"/>
+    <sheet name="受注ヘッダ" sheetId="43" r:id="rId14"/>
+    <sheet name="受注明細" sheetId="44" r:id="rId15"/>
+    <sheet name="プロダクトサンプル" sheetId="47" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">受注ヘッダ!$A$9:$S$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">受注明細!$A$9:$S$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'登録　仕様'!$A$1:$AZ$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">受注ヘッダ!$A$9:$S$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">受注明細!$A$9:$S$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'登録　仕様'!$A$1:$AZ$105</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -870,7 +871,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="798">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -4572,10 +4573,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Z:\xx顧客別\コニカミノルタ\80_データ移行\work\src\quickstart-dotnet-master\bin\Release￥ConsoleApplication.exe</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>３）設定ファイル</t>
     <rPh sb="2" eb="4">
       <t>セッテイ</t>
@@ -4739,10 +4736,6 @@
     <rPh sb="47" eb="49">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>3csvForUpdateEdited.csvに改名する</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -4894,16 +4887,6 @@
     </r>
     <rPh sb="66" eb="68">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>file\2resultSubscript.txt（ログファイル）→ ★ "Success":falseでgrepしてエラーのグループ（同一試算番号・親品目）を切り取る</t>
-    <rPh sb="80" eb="81">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ト</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -4969,6 +4952,177 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>・サブスクリプションの削除</t>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1-1 エラー対応</t>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tool\件数確認.xlsx </t>
+    <rPh sb="5" eb="7">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>親品目をばらした際の予想件数とログファイルより作成されているサブスクリプションの件数を比較する。</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヒンモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2_ProductCode__c</t>
+  </si>
+  <si>
+    <t>※ExcelでExportすること！</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1_accountname</t>
+  </si>
+  <si>
+    <t>2_HARISCostomerNumber__c</t>
+  </si>
+  <si>
+    <t>Z:\xx顧客別\コニカミノルタ\80_データ移行\work\src\quickstart-dotnet-master\bin\Release￥ConsoleApplication.exe</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>file\2accountDB.csv,2ratePlanDB.csv,2ratePlanChargeDB.csv（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SJIS）*雛形のファイルを使用</t>
+    </r>
+    <rPh sb="64" eb="66">
+      <t>ヒナガタ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>file\4csvForUpdateDB.csv(4csvForUpdate.csvの中身をコピーして、雛形の4csvForUpdateDB.csvに貼り付け)（SJIS）*雛形のファイルを使用</t>
+    <rPh sb="43" eb="45">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒナガタ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>：明細の同一試算番号の途中でエラーが発生してる場合は、ヘッダー情報を忘れずに取得する。</t>
+    <rPh sb="1" eb="3">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>：処理済みの明細ファイルのデータを削除する。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>：処理済みのヘッダーファイルのデータを削除する。</t>
+    <rPh sb="1" eb="3">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>＊試算番号順でのソート</t>
+    <rPh sb="1" eb="3">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">c:\～&gt;ConsoleApplication </t>
     </r>
@@ -4986,6 +5140,54 @@
   </si>
   <si>
     <r>
+      <t>file\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5delete.txt</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>file\2resultSubscript.txt（ログファイル）→ ★ Error, "Success":falseでgrepしてエラーのグループ（同一試算番号・親品目）を切り取る</t>
+    <rPh sb="87" eb="88">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>file\4resultMakeSubscriptCsv.txt（ログファイル） -&gt; ★ Error, 「Value：false」でgrepしてエラー検索</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>file\6oyaAndDate.txt（ログファイル） -&gt; ★ Error, 「Success: False」でgrepしてエラー検索</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>file\3resultCsvForUpdate.txt（ログファイル） -&gt; ★ Error, 「Success: False 」でgrepしてエラー検索</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
       <t>*CSVファイルの</t>
     </r>
     <r>
@@ -5022,99 +5224,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>・サブスクリプションの削除</t>
-    <rPh sb="11" eb="13">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>1-1 エラー対応</t>
-    <rPh sb="7" eb="9">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>file\3resultCsvForUpdate.txt（ログファイル） -&gt; ★「Success: False 」でgrepしてエラー検索</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>file\6oyaAndDate.txt（ログファイル） -&gt; ★「Success: False」でgrepしてエラー検索</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>file\4resultMakeSubscriptCsv.txt（ログファイル） -&gt; ★「Value：false」でgrepしてエラー検索</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t xml:space="preserve">tool\件数確認.xlsx </t>
-    <rPh sb="5" eb="7">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>親品目をばらした際の予想件数とログファイルより作成されているサブスクリプションの件数を比較する。</t>
-    <rPh sb="0" eb="1">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ヒンモク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨソウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒカク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>file\2accountDB.csv,2ratePlanDB.csv,2ratePlanChargeDB.csv（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>SJIS）</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>file\4csvForUpdateDB.csv(4csvForUpdate.csvの中身をコピーして、雛形の4csvForUpdateDB.csvに貼り付け)（SJIS）</t>
-    <rPh sb="43" eb="45">
-      <t>ナカミ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヒナガタ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ツ</t>
-    </rPh>
+    <t>3csvForUpdateEdited.csvに改名する。（*CSVファイルのUTF確認:Excelで編集して保存するとSJISになる。）</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -7663,16 +7773,7 @@
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7683,6 +7784,9 @@
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -7698,9 +7802,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7966,7 +8067,16 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="36" xfId="152" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="97" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8988,6 +9098,252 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA3937D-7623-4D8C-87AF-97975116DA0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7170420" y="17746980"/>
+          <a:ext cx="914400" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="吹き出し: 四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCFFC62E-A1AB-4319-8AED-A231919B024F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8374380" y="18173700"/>
+          <a:ext cx="1767840" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66721"/>
+            <a:gd name="adj2" fmla="val -82288"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実行ファイルの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ConsoleApplication.exe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>と</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>同一場所にコピーする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2849771</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>12381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99BA77D-DADC-4B31-8FF9-1497AE46EC1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4823460"/>
+          <a:ext cx="18303131" cy="9809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9047,13 +9403,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>32390</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>26892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>16036</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -9069,7 +9425,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="641990" y="21649763"/>
+          <a:off x="641990" y="22295221"/>
           <a:ext cx="11092809" cy="8218744"/>
           <a:chOff x="588202" y="6866964"/>
           <a:chExt cx="11092809" cy="8218744"/>
@@ -9151,14 +9507,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16629</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>28285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>275829</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>113142</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>113143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9200,13 +9556,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1072</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>87085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>287127</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>149806</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9250,13 +9606,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>26445</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>29495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>519504</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>25175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9299,14 +9655,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>39893</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>61663</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>114677</xdr:rowOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>114678</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9349,13 +9705,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>26895</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>62754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>527638</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>120382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9399,13 +9755,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>17928</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>62755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>94128</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>131815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9662,13 +10018,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>65955</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>53790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>207470</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>119691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9712,13 +10068,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>35859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>119680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9783,13 +10139,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>242047</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>63201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>165847</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>148366</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9854,13 +10210,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>593014</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>99507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>53787</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9925,13 +10281,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>54236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>596153</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>139402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9996,13 +10352,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>135814</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>117436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>206187</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>107576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10067,13 +10423,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>39102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>519953</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>116746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10117,14 +10473,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>571495</xdr:colOff>
-      <xdr:row>368</xdr:row>
-      <xdr:rowOff>84031</xdr:rowOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>84030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10167,13 +10523,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>573742</xdr:colOff>
-      <xdr:row>371</xdr:row>
+      <xdr:row>375</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>132430</xdr:colOff>
-      <xdr:row>387</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>123500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10217,13 +10573,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>80682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>182894</xdr:colOff>
-      <xdr:row>414</xdr:row>
+      <xdr:row>418</xdr:row>
       <xdr:rowOff>19590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11603,6 +11959,417 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>130766</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>46445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="●Err_Recover_ヘッダー漏れ.csv (更新) - 秀丸">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7BA179-D384-42F4-9033-DC35D1391574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14151566" cy="8367485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>130766</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>137885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2" descr="●Err_Recover_ヘッダー漏れ.csv (更新) - 秀丸">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{660707D0-6EC2-4B59-9FC6-B9D036BD94A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14151566" cy="8367485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393257</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>102704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>417442</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>86138</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8DD388-67D5-4C2B-88FB-29E88E7629A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393257" y="5986669"/>
+          <a:ext cx="9168185" cy="1732721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>378633</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>124475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>291548</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>67209</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A399F9DB-5884-468E-8003-6D3575D3CE35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="378633" y="5690388"/>
+          <a:ext cx="1741715" cy="260786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ここの明細のヘッダーはここ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>536716</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>450577</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矢印: 上カーブ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1794EDDD-D77B-42AC-97A3-40A19CD9573D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="503586" y="4081668"/>
+          <a:ext cx="3028122" cy="523461"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 24999"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393258</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>549966</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C7DB09-5C39-4D44-B10E-623C6F156516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393258" y="2726633"/>
+          <a:ext cx="2595108" cy="168967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14232,7 +14999,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15481,7 +16248,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17094,7 +17861,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17503,7 +18270,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18316,55 +19083,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2849771</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>12381</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99BA77D-DADC-4B31-8FF9-1497AE46EC1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4823460"/>
-          <a:ext cx="18303131" cy="9809524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -18726,9 +19444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6"/>
   <cols>
@@ -18742,265 +19458,265 @@
       <c r="B1" s="129" t="s">
         <v>583</v>
       </c>
-      <c r="C1" s="199" t="s">
+      <c r="C1" s="196" t="s">
         <v>578</v>
       </c>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="129">
         <f>A1+1</f>
         <v>2</v>
       </c>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="196" t="s">
         <v>579</v>
       </c>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="129">
         <f t="shared" ref="A3:A29" si="0">A2+1</f>
         <v>3</v>
       </c>
-      <c r="C3" s="199" t="s">
+      <c r="C3" s="196" t="s">
         <v>580</v>
       </c>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="196"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="129">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C4" s="199" t="s">
+      <c r="C4" s="196" t="s">
         <v>582</v>
       </c>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="199"/>
-      <c r="M4" s="199"/>
-      <c r="N4" s="199"/>
-      <c r="O4" s="199"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="196"/>
+      <c r="M4" s="196"/>
+      <c r="N4" s="196"/>
+      <c r="O4" s="196"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="129">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C5" s="199" t="s">
+      <c r="C5" s="196" t="s">
         <v>581</v>
       </c>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199"/>
-      <c r="O5" s="199"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="196"/>
+      <c r="N5" s="196"/>
+      <c r="O5" s="196"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="129">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C6" s="199" t="s">
+      <c r="C6" s="196" t="s">
         <v>585</v>
       </c>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="199"/>
-      <c r="K6" s="199"/>
-      <c r="L6" s="199"/>
-      <c r="M6" s="199"/>
-      <c r="N6" s="199"/>
-      <c r="O6" s="199"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="129">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C7" s="200" t="s">
+      <c r="C7" s="197" t="s">
         <v>586</v>
       </c>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="198"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="198"/>
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="198"/>
+      <c r="N7" s="198"/>
+      <c r="O7" s="198"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="129">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C8" s="199" t="s">
+      <c r="C8" s="196" t="s">
         <v>590</v>
       </c>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="199"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="199"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="196"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="129">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C9" s="199" t="s">
+      <c r="C9" s="196" t="s">
         <v>587</v>
       </c>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="199"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="199"/>
-      <c r="K9" s="199"/>
-      <c r="L9" s="199"/>
-      <c r="M9" s="199"/>
-      <c r="N9" s="199"/>
-      <c r="O9" s="199"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="196"/>
+      <c r="O9" s="196"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="129">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="199"/>
-      <c r="K10" s="199"/>
-      <c r="L10" s="199"/>
-      <c r="M10" s="199"/>
-      <c r="N10" s="199"/>
-      <c r="O10" s="199"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="196"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="196"/>
+      <c r="N10" s="196"/>
+      <c r="O10" s="196"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="129">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C11" s="199"/>
-      <c r="D11" s="199"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="199"/>
-      <c r="G11" s="199"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="199"/>
-      <c r="J11" s="199"/>
-      <c r="K11" s="199"/>
-      <c r="L11" s="199"/>
-      <c r="M11" s="199"/>
-      <c r="N11" s="199"/>
-      <c r="O11" s="199"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="196"/>
+      <c r="M11" s="196"/>
+      <c r="N11" s="196"/>
+      <c r="O11" s="196"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="129">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C12" s="199"/>
-      <c r="D12" s="199"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="199"/>
-      <c r="K12" s="199"/>
-      <c r="L12" s="199"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="199"/>
-      <c r="O12" s="199"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="196"/>
+      <c r="L12" s="196"/>
+      <c r="M12" s="196"/>
+      <c r="N12" s="196"/>
+      <c r="O12" s="196"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="129">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C13" s="199"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="199"/>
-      <c r="K13" s="199"/>
-      <c r="L13" s="199"/>
-      <c r="M13" s="199"/>
-      <c r="N13" s="199"/>
-      <c r="O13" s="199"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="196"/>
+      <c r="L13" s="196"/>
+      <c r="M13" s="196"/>
+      <c r="N13" s="196"/>
+      <c r="O13" s="196"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="129">
@@ -19010,308 +19726,308 @@
       <c r="B14" s="129" t="s">
         <v>584</v>
       </c>
-      <c r="C14" s="199" t="s">
+      <c r="C14" s="196" t="s">
         <v>589</v>
       </c>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="199"/>
-      <c r="L14" s="199"/>
-      <c r="M14" s="199"/>
-      <c r="N14" s="199"/>
-      <c r="O14" s="199"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="196"/>
+      <c r="L14" s="196"/>
+      <c r="M14" s="196"/>
+      <c r="N14" s="196"/>
+      <c r="O14" s="196"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="129">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C15" s="199" t="s">
+      <c r="C15" s="196" t="s">
         <v>588</v>
       </c>
-      <c r="D15" s="199"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="199"/>
-      <c r="K15" s="199"/>
-      <c r="L15" s="199"/>
-      <c r="M15" s="199"/>
-      <c r="N15" s="199"/>
-      <c r="O15" s="199"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="196"/>
+      <c r="L15" s="196"/>
+      <c r="M15" s="196"/>
+      <c r="N15" s="196"/>
+      <c r="O15" s="196"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="129">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="199"/>
-      <c r="K16" s="199"/>
-      <c r="L16" s="199"/>
-      <c r="M16" s="199"/>
-      <c r="N16" s="199"/>
-      <c r="O16" s="199"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="196"/>
+      <c r="L16" s="196"/>
+      <c r="M16" s="196"/>
+      <c r="N16" s="196"/>
+      <c r="O16" s="196"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="129">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C17" s="199"/>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="199"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="199"/>
-      <c r="N17" s="199"/>
-      <c r="O17" s="199"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="196"/>
+      <c r="L17" s="196"/>
+      <c r="M17" s="196"/>
+      <c r="N17" s="196"/>
+      <c r="O17" s="196"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="129">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="199"/>
-      <c r="O18" s="199"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="196"/>
+      <c r="L18" s="196"/>
+      <c r="M18" s="196"/>
+      <c r="N18" s="196"/>
+      <c r="O18" s="196"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="129">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="199"/>
-      <c r="K19" s="199"/>
-      <c r="L19" s="199"/>
-      <c r="M19" s="199"/>
-      <c r="N19" s="199"/>
-      <c r="O19" s="199"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="196"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="196"/>
+      <c r="N19" s="196"/>
+      <c r="O19" s="196"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="129">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="199"/>
-      <c r="K20" s="199"/>
-      <c r="L20" s="199"/>
-      <c r="M20" s="199"/>
-      <c r="N20" s="199"/>
-      <c r="O20" s="199"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="196"/>
+      <c r="L20" s="196"/>
+      <c r="M20" s="196"/>
+      <c r="N20" s="196"/>
+      <c r="O20" s="196"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="129">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="199"/>
-      <c r="L21" s="199"/>
-      <c r="M21" s="199"/>
-      <c r="N21" s="199"/>
-      <c r="O21" s="199"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="196"/>
+      <c r="L21" s="196"/>
+      <c r="M21" s="196"/>
+      <c r="N21" s="196"/>
+      <c r="O21" s="196"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="129">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C22" s="199"/>
-      <c r="D22" s="199"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="199"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="199"/>
-      <c r="K22" s="199"/>
-      <c r="L22" s="199"/>
-      <c r="M22" s="199"/>
-      <c r="N22" s="199"/>
-      <c r="O22" s="199"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="196"/>
+      <c r="L22" s="196"/>
+      <c r="M22" s="196"/>
+      <c r="N22" s="196"/>
+      <c r="O22" s="196"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="129">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C23" s="199"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="199"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="199"/>
-      <c r="L23" s="199"/>
-      <c r="M23" s="199"/>
-      <c r="N23" s="199"/>
-      <c r="O23" s="199"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="196"/>
+      <c r="L23" s="196"/>
+      <c r="M23" s="196"/>
+      <c r="N23" s="196"/>
+      <c r="O23" s="196"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="129">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C24" s="199"/>
-      <c r="D24" s="199"/>
-      <c r="E24" s="199"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="199"/>
-      <c r="H24" s="199"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="199"/>
-      <c r="K24" s="199"/>
-      <c r="L24" s="199"/>
-      <c r="M24" s="199"/>
-      <c r="N24" s="199"/>
-      <c r="O24" s="199"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="196"/>
+      <c r="K24" s="196"/>
+      <c r="L24" s="196"/>
+      <c r="M24" s="196"/>
+      <c r="N24" s="196"/>
+      <c r="O24" s="196"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="129">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C25" s="199"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="199"/>
-      <c r="L25" s="199"/>
-      <c r="M25" s="199"/>
-      <c r="N25" s="199"/>
-      <c r="O25" s="199"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="196"/>
+      <c r="K25" s="196"/>
+      <c r="L25" s="196"/>
+      <c r="M25" s="196"/>
+      <c r="N25" s="196"/>
+      <c r="O25" s="196"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="129">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C26" s="199"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="199"/>
-      <c r="L26" s="199"/>
-      <c r="M26" s="199"/>
-      <c r="N26" s="199"/>
-      <c r="O26" s="199"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="196"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="196"/>
+      <c r="K26" s="196"/>
+      <c r="L26" s="196"/>
+      <c r="M26" s="196"/>
+      <c r="N26" s="196"/>
+      <c r="O26" s="196"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="129">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C27" s="199"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="199"/>
-      <c r="K27" s="199"/>
-      <c r="L27" s="199"/>
-      <c r="M27" s="199"/>
-      <c r="N27" s="199"/>
-      <c r="O27" s="199"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="196"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="196"/>
+      <c r="N27" s="196"/>
+      <c r="O27" s="196"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="129">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C28" s="199"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="199"/>
-      <c r="K28" s="199"/>
-      <c r="L28" s="199"/>
-      <c r="M28" s="199"/>
-      <c r="N28" s="199"/>
-      <c r="O28" s="199"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="196"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="196"/>
+      <c r="N28" s="196"/>
+      <c r="O28" s="196"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="129">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C29" s="199"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="199"/>
-      <c r="K29" s="199"/>
-      <c r="L29" s="199"/>
-      <c r="M29" s="199"/>
-      <c r="N29" s="199"/>
-      <c r="O29" s="199"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="196"/>
+      <c r="L29" s="196"/>
+      <c r="M29" s="196"/>
+      <c r="N29" s="196"/>
+      <c r="O29" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -19351,15 +20067,531 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="17" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="34.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="32" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="240" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120" t="s">
+        <v>513</v>
+      </c>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A3" s="240"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="118" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120" t="s">
+        <v>520</v>
+      </c>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A4" s="240"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" s="119"/>
+      <c r="E4" s="120" t="s">
+        <v>520</v>
+      </c>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A5" s="240"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120" t="s">
+        <v>520</v>
+      </c>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A6" s="240"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="120" t="s">
+        <v>520</v>
+      </c>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A7" s="240"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120" t="s">
+        <v>520</v>
+      </c>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="240"/>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>523</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>522</v>
+      </c>
+      <c r="F8" s="122" t="s">
+        <v>531</v>
+      </c>
+      <c r="G8" s="119" t="s">
+        <v>524</v>
+      </c>
+      <c r="H8" s="119"/>
+      <c r="I8" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="240"/>
+      <c r="B9" s="241"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="237"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="118" t="s">
+        <v>526</v>
+      </c>
+      <c r="J9" s="118"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="240"/>
+      <c r="B10" s="242"/>
+      <c r="C10" s="245"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="238"/>
+      <c r="G10" s="238"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="118" t="s">
+        <v>527</v>
+      </c>
+      <c r="J10" s="118"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="240"/>
+      <c r="B11" s="242"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="238"/>
+      <c r="E11" s="238"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="240"/>
+      <c r="B12" s="242"/>
+      <c r="C12" s="245"/>
+      <c r="D12" s="238"/>
+      <c r="E12" s="238"/>
+      <c r="F12" s="238"/>
+      <c r="G12" s="238"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="240"/>
+      <c r="B13" s="242"/>
+      <c r="C13" s="245"/>
+      <c r="D13" s="238"/>
+      <c r="E13" s="238"/>
+      <c r="F13" s="239"/>
+      <c r="G13" s="239"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="240"/>
+      <c r="B14" s="242"/>
+      <c r="C14" s="245"/>
+      <c r="D14" s="238"/>
+      <c r="E14" s="238"/>
+      <c r="F14" s="122" t="s">
+        <v>534</v>
+      </c>
+      <c r="G14" s="119" t="s">
+        <v>532</v>
+      </c>
+      <c r="H14" s="122" t="s">
+        <v>535</v>
+      </c>
+      <c r="I14" s="118" t="s">
+        <v>536</v>
+      </c>
+      <c r="J14" s="120"/>
+      <c r="K14" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="240"/>
+      <c r="B15" s="242"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="237"/>
+      <c r="G15" s="237"/>
+      <c r="H15" s="237"/>
+      <c r="I15" s="237"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="240"/>
+      <c r="B16" s="242"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="239"/>
+      <c r="F16" s="239"/>
+      <c r="G16" s="239"/>
+      <c r="H16" s="239"/>
+      <c r="I16" s="239"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="240"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="245"/>
+      <c r="D17" s="121" t="s">
+        <v>533</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>521</v>
+      </c>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119" t="s">
+        <v>540</v>
+      </c>
+      <c r="H17" s="122"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="240"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="245"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="237"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119" t="s">
+        <v>541</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="240"/>
+      <c r="B19" s="242"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="238"/>
+      <c r="E19" s="238"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="240"/>
+      <c r="B20" s="242"/>
+      <c r="C20" s="245"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="238"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="240"/>
+      <c r="B21" s="242"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="238"/>
+      <c r="E21" s="238"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="240"/>
+      <c r="B22" s="242"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="238"/>
+      <c r="E22" s="238"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="240"/>
+      <c r="B23" s="242"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="238"/>
+      <c r="E23" s="238"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="120" t="s">
+        <v>542</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="240"/>
+      <c r="B24" s="242"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="238"/>
+      <c r="E24" s="238"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="240"/>
+      <c r="B25" s="242"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="238"/>
+      <c r="E25" s="238"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119" t="s">
+        <v>543</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="240"/>
+      <c r="B26" s="242"/>
+      <c r="C26" s="245"/>
+      <c r="D26" s="238"/>
+      <c r="E26" s="238"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119" t="s">
+        <v>544</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="240"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="238"/>
+      <c r="E27" s="238"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="118" t="s">
+        <v>545</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="240"/>
+      <c r="B28" s="242"/>
+      <c r="C28" s="245"/>
+      <c r="D28" s="238"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="118" t="s">
+        <v>546</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="240"/>
+      <c r="B29" s="243"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="118" t="s">
+        <v>547</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="D18:D29"/>
+    <mergeCell ref="E18:E29"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="B9:B29"/>
+    <mergeCell ref="C9:C29"/>
+    <mergeCell ref="D9:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -19396,7 +20628,7 @@
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="247" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="7">
@@ -19408,15 +20640,15 @@
       <c r="D2" s="9">
         <v>6</v>
       </c>
-      <c r="E2" s="253"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="255"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="252"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="251"/>
+      <c r="A3" s="248"/>
       <c r="B3" s="7">
         <f>B2 +1</f>
         <v>2</v>
@@ -19427,15 +20659,15 @@
       <c r="D3" s="9">
         <v>20</v>
       </c>
-      <c r="E3" s="256"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="258"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="255"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="251"/>
+      <c r="A4" s="248"/>
       <c r="B4" s="7">
         <f t="shared" ref="B4:B26" si="0">B3 +1</f>
         <v>3</v>
@@ -19446,15 +20678,15 @@
       <c r="D4" s="9">
         <v>21</v>
       </c>
-      <c r="E4" s="256"/>
-      <c r="F4" s="257"/>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="258"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="255"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="251"/>
+      <c r="A5" s="248"/>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -19465,15 +20697,15 @@
       <c r="D5" s="9">
         <v>25</v>
       </c>
-      <c r="E5" s="256"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="258"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="255"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="251"/>
+      <c r="A6" s="248"/>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -19484,15 +20716,15 @@
       <c r="D6" s="9">
         <v>26</v>
       </c>
-      <c r="E6" s="256"/>
-      <c r="F6" s="257"/>
-      <c r="G6" s="257"/>
-      <c r="H6" s="257"/>
-      <c r="I6" s="257"/>
-      <c r="J6" s="258"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="254"/>
+      <c r="J6" s="255"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="251"/>
+      <c r="A7" s="248"/>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -19503,15 +20735,15 @@
       <c r="D7" s="9">
         <v>27</v>
       </c>
-      <c r="E7" s="256"/>
-      <c r="F7" s="257"/>
-      <c r="G7" s="257"/>
-      <c r="H7" s="257"/>
-      <c r="I7" s="257"/>
-      <c r="J7" s="258"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="255"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="251"/>
+      <c r="A8" s="248"/>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -19522,15 +20754,15 @@
       <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="256"/>
-      <c r="F8" s="257"/>
-      <c r="G8" s="257"/>
-      <c r="H8" s="257"/>
-      <c r="I8" s="257"/>
-      <c r="J8" s="258"/>
+      <c r="E8" s="253"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="254"/>
+      <c r="I8" s="254"/>
+      <c r="J8" s="255"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="251"/>
+      <c r="A9" s="248"/>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -19539,15 +20771,15 @@
         <v>22</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="257"/>
-      <c r="G9" s="257"/>
-      <c r="H9" s="257"/>
-      <c r="I9" s="257"/>
-      <c r="J9" s="258"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="254"/>
+      <c r="J9" s="255"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="251"/>
+      <c r="A10" s="248"/>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -19558,15 +20790,15 @@
       <c r="D10" s="9">
         <v>2</v>
       </c>
-      <c r="E10" s="256"/>
-      <c r="F10" s="257"/>
-      <c r="G10" s="257"/>
-      <c r="H10" s="257"/>
-      <c r="I10" s="257"/>
-      <c r="J10" s="258"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="255"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="251"/>
+      <c r="A11" s="248"/>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -19575,15 +20807,15 @@
         <v>24</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="256"/>
-      <c r="F11" s="257"/>
-      <c r="G11" s="257"/>
-      <c r="H11" s="257"/>
-      <c r="I11" s="257"/>
-      <c r="J11" s="258"/>
+      <c r="E11" s="253"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="254"/>
+      <c r="I11" s="254"/>
+      <c r="J11" s="255"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="251"/>
+      <c r="A12" s="248"/>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -19594,15 +20826,15 @@
       <c r="D12" s="9">
         <v>5</v>
       </c>
-      <c r="E12" s="256"/>
-      <c r="F12" s="257"/>
-      <c r="G12" s="257"/>
-      <c r="H12" s="257"/>
-      <c r="I12" s="257"/>
-      <c r="J12" s="258"/>
+      <c r="E12" s="253"/>
+      <c r="F12" s="254"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="254"/>
+      <c r="J12" s="255"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="251"/>
+      <c r="A13" s="248"/>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -19611,15 +20843,15 @@
         <v>26</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="257"/>
-      <c r="G13" s="257"/>
-      <c r="H13" s="257"/>
-      <c r="I13" s="257"/>
-      <c r="J13" s="258"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="254"/>
+      <c r="I13" s="254"/>
+      <c r="J13" s="255"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="251"/>
+      <c r="A14" s="248"/>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -19630,15 +20862,15 @@
       <c r="D14" s="9">
         <v>4</v>
       </c>
-      <c r="E14" s="256"/>
-      <c r="F14" s="257"/>
-      <c r="G14" s="257"/>
-      <c r="H14" s="257"/>
-      <c r="I14" s="257"/>
-      <c r="J14" s="258"/>
+      <c r="E14" s="253"/>
+      <c r="F14" s="254"/>
+      <c r="G14" s="254"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="254"/>
+      <c r="J14" s="255"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="251"/>
+      <c r="A15" s="248"/>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -19649,15 +20881,15 @@
       <c r="D15" s="9">
         <v>14</v>
       </c>
-      <c r="E15" s="256"/>
-      <c r="F15" s="257"/>
-      <c r="G15" s="257"/>
-      <c r="H15" s="257"/>
-      <c r="I15" s="257"/>
-      <c r="J15" s="258"/>
+      <c r="E15" s="253"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="254"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="254"/>
+      <c r="J15" s="255"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="251"/>
+      <c r="A16" s="248"/>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -19668,15 +20900,15 @@
       <c r="D16" s="9">
         <v>15</v>
       </c>
-      <c r="E16" s="256"/>
-      <c r="F16" s="257"/>
-      <c r="G16" s="257"/>
-      <c r="H16" s="257"/>
-      <c r="I16" s="257"/>
-      <c r="J16" s="258"/>
+      <c r="E16" s="253"/>
+      <c r="F16" s="254"/>
+      <c r="G16" s="254"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="254"/>
+      <c r="J16" s="255"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="251"/>
+      <c r="A17" s="248"/>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -19685,15 +20917,15 @@
         <v>30</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="256"/>
-      <c r="F17" s="257"/>
-      <c r="G17" s="257"/>
-      <c r="H17" s="257"/>
-      <c r="I17" s="257"/>
-      <c r="J17" s="258"/>
+      <c r="E17" s="253"/>
+      <c r="F17" s="254"/>
+      <c r="G17" s="254"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="254"/>
+      <c r="J17" s="255"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="251"/>
+      <c r="A18" s="248"/>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -19702,15 +20934,15 @@
         <v>31</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="257"/>
-      <c r="G18" s="257"/>
-      <c r="H18" s="257"/>
-      <c r="I18" s="257"/>
-      <c r="J18" s="258"/>
+      <c r="E18" s="253"/>
+      <c r="F18" s="254"/>
+      <c r="G18" s="254"/>
+      <c r="H18" s="254"/>
+      <c r="I18" s="254"/>
+      <c r="J18" s="255"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="251"/>
+      <c r="A19" s="248"/>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -19721,15 +20953,15 @@
       <c r="D19" s="9">
         <v>16</v>
       </c>
-      <c r="E19" s="256"/>
-      <c r="F19" s="257"/>
-      <c r="G19" s="257"/>
-      <c r="H19" s="257"/>
-      <c r="I19" s="257"/>
-      <c r="J19" s="258"/>
+      <c r="E19" s="253"/>
+      <c r="F19" s="254"/>
+      <c r="G19" s="254"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="254"/>
+      <c r="J19" s="255"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="251"/>
+      <c r="A20" s="248"/>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -19740,15 +20972,15 @@
       <c r="D20" s="9">
         <v>17</v>
       </c>
-      <c r="E20" s="256"/>
-      <c r="F20" s="257"/>
-      <c r="G20" s="257"/>
-      <c r="H20" s="257"/>
-      <c r="I20" s="257"/>
-      <c r="J20" s="258"/>
+      <c r="E20" s="253"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="254"/>
+      <c r="J20" s="255"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="251"/>
+      <c r="A21" s="248"/>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -19757,15 +20989,15 @@
         <v>34</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="257"/>
-      <c r="G21" s="257"/>
-      <c r="H21" s="257"/>
-      <c r="I21" s="257"/>
-      <c r="J21" s="258"/>
+      <c r="E21" s="253"/>
+      <c r="F21" s="254"/>
+      <c r="G21" s="254"/>
+      <c r="H21" s="254"/>
+      <c r="I21" s="254"/>
+      <c r="J21" s="255"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="251"/>
+      <c r="A22" s="248"/>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -19776,15 +21008,15 @@
       <c r="D22" s="9">
         <v>19</v>
       </c>
-      <c r="E22" s="256"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
-      <c r="H22" s="257"/>
-      <c r="I22" s="257"/>
-      <c r="J22" s="258"/>
+      <c r="E22" s="253"/>
+      <c r="F22" s="254"/>
+      <c r="G22" s="254"/>
+      <c r="H22" s="254"/>
+      <c r="I22" s="254"/>
+      <c r="J22" s="255"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="251"/>
+      <c r="A23" s="248"/>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -19795,15 +21027,15 @@
       <c r="D23" s="9">
         <v>28</v>
       </c>
-      <c r="E23" s="256"/>
-      <c r="F23" s="257"/>
-      <c r="G23" s="257"/>
-      <c r="H23" s="257"/>
-      <c r="I23" s="257"/>
-      <c r="J23" s="258"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="254"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="254"/>
+      <c r="I23" s="254"/>
+      <c r="J23" s="255"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="251"/>
+      <c r="A24" s="248"/>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -19814,15 +21046,15 @@
       <c r="D24" s="9">
         <v>29</v>
       </c>
-      <c r="E24" s="256"/>
-      <c r="F24" s="257"/>
-      <c r="G24" s="257"/>
-      <c r="H24" s="257"/>
-      <c r="I24" s="257"/>
-      <c r="J24" s="258"/>
+      <c r="E24" s="253"/>
+      <c r="F24" s="254"/>
+      <c r="G24" s="254"/>
+      <c r="H24" s="254"/>
+      <c r="I24" s="254"/>
+      <c r="J24" s="255"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="251"/>
+      <c r="A25" s="248"/>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -19833,15 +21065,15 @@
       <c r="D25" s="9">
         <v>30</v>
       </c>
-      <c r="E25" s="256"/>
-      <c r="F25" s="257"/>
-      <c r="G25" s="257"/>
-      <c r="H25" s="257"/>
-      <c r="I25" s="257"/>
-      <c r="J25" s="258"/>
+      <c r="E25" s="253"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="254"/>
+      <c r="J25" s="255"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="251"/>
+      <c r="A26" s="248"/>
       <c r="B26" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -19852,25 +21084,25 @@
       <c r="D26" s="9">
         <v>31</v>
       </c>
-      <c r="E26" s="259"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="260"/>
-      <c r="H26" s="260"/>
-      <c r="I26" s="260"/>
-      <c r="J26" s="261"/>
+      <c r="E26" s="256"/>
+      <c r="F26" s="257"/>
+      <c r="G26" s="257"/>
+      <c r="H26" s="257"/>
+      <c r="I26" s="257"/>
+      <c r="J26" s="258"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="251"/>
-      <c r="B27" s="262"/>
-      <c r="C27" s="264" t="s">
+      <c r="A27" s="248"/>
+      <c r="B27" s="259"/>
+      <c r="C27" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="267"/>
-      <c r="E27" s="270"/>
-      <c r="F27" s="273" t="s">
+      <c r="D27" s="264"/>
+      <c r="E27" s="267"/>
+      <c r="F27" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="275"/>
+      <c r="G27" s="272"/>
       <c r="H27" s="10">
         <f>E61 +1</f>
         <v>31</v>
@@ -19883,13 +21115,13 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1">
-      <c r="A28" s="251"/>
-      <c r="B28" s="262"/>
-      <c r="C28" s="265"/>
-      <c r="D28" s="268"/>
-      <c r="E28" s="271"/>
-      <c r="F28" s="274"/>
-      <c r="G28" s="276"/>
+      <c r="A28" s="248"/>
+      <c r="B28" s="259"/>
+      <c r="C28" s="262"/>
+      <c r="D28" s="265"/>
+      <c r="E28" s="268"/>
+      <c r="F28" s="271"/>
+      <c r="G28" s="273"/>
       <c r="H28" s="10">
         <f>H27 + 1</f>
         <v>32</v>
@@ -19902,13 +21134,13 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="251"/>
-      <c r="B29" s="262"/>
-      <c r="C29" s="265"/>
-      <c r="D29" s="268"/>
-      <c r="E29" s="271"/>
-      <c r="F29" s="274"/>
-      <c r="G29" s="276"/>
+      <c r="A29" s="248"/>
+      <c r="B29" s="259"/>
+      <c r="C29" s="262"/>
+      <c r="D29" s="265"/>
+      <c r="E29" s="268"/>
+      <c r="F29" s="271"/>
+      <c r="G29" s="273"/>
       <c r="H29" s="10">
         <f t="shared" ref="H29:H59" si="1">H28 + 1</f>
         <v>33</v>
@@ -19921,13 +21153,13 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="251"/>
-      <c r="B30" s="262"/>
-      <c r="C30" s="265"/>
-      <c r="D30" s="268"/>
-      <c r="E30" s="271"/>
-      <c r="F30" s="274"/>
-      <c r="G30" s="276"/>
+      <c r="A30" s="248"/>
+      <c r="B30" s="259"/>
+      <c r="C30" s="262"/>
+      <c r="D30" s="265"/>
+      <c r="E30" s="268"/>
+      <c r="F30" s="271"/>
+      <c r="G30" s="273"/>
       <c r="H30" s="10">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -19940,13 +21172,13 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="251"/>
-      <c r="B31" s="262"/>
-      <c r="C31" s="265"/>
-      <c r="D31" s="268"/>
-      <c r="E31" s="271"/>
-      <c r="F31" s="274"/>
-      <c r="G31" s="276"/>
+      <c r="A31" s="248"/>
+      <c r="B31" s="259"/>
+      <c r="C31" s="262"/>
+      <c r="D31" s="265"/>
+      <c r="E31" s="268"/>
+      <c r="F31" s="271"/>
+      <c r="G31" s="273"/>
       <c r="H31" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -19959,13 +21191,13 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="251"/>
-      <c r="B32" s="262"/>
-      <c r="C32" s="265"/>
-      <c r="D32" s="268"/>
-      <c r="E32" s="271"/>
-      <c r="F32" s="274"/>
-      <c r="G32" s="276"/>
+      <c r="A32" s="248"/>
+      <c r="B32" s="259"/>
+      <c r="C32" s="262"/>
+      <c r="D32" s="265"/>
+      <c r="E32" s="268"/>
+      <c r="F32" s="271"/>
+      <c r="G32" s="273"/>
       <c r="H32" s="10">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -19978,13 +21210,13 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="251"/>
-      <c r="B33" s="262"/>
-      <c r="C33" s="265"/>
-      <c r="D33" s="268"/>
-      <c r="E33" s="271"/>
-      <c r="F33" s="274"/>
-      <c r="G33" s="276"/>
+      <c r="A33" s="248"/>
+      <c r="B33" s="259"/>
+      <c r="C33" s="262"/>
+      <c r="D33" s="265"/>
+      <c r="E33" s="268"/>
+      <c r="F33" s="271"/>
+      <c r="G33" s="273"/>
       <c r="H33" s="10">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -19995,13 +21227,13 @@
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="251"/>
-      <c r="B34" s="262"/>
-      <c r="C34" s="265"/>
-      <c r="D34" s="268"/>
-      <c r="E34" s="271"/>
-      <c r="F34" s="274"/>
-      <c r="G34" s="276"/>
+      <c r="A34" s="248"/>
+      <c r="B34" s="259"/>
+      <c r="C34" s="262"/>
+      <c r="D34" s="265"/>
+      <c r="E34" s="268"/>
+      <c r="F34" s="271"/>
+      <c r="G34" s="273"/>
       <c r="H34" s="10">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -20014,13 +21246,13 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="251"/>
-      <c r="B35" s="262"/>
-      <c r="C35" s="265"/>
-      <c r="D35" s="268"/>
-      <c r="E35" s="271"/>
-      <c r="F35" s="274"/>
-      <c r="G35" s="276"/>
+      <c r="A35" s="248"/>
+      <c r="B35" s="259"/>
+      <c r="C35" s="262"/>
+      <c r="D35" s="265"/>
+      <c r="E35" s="268"/>
+      <c r="F35" s="271"/>
+      <c r="G35" s="273"/>
       <c r="H35" s="10">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -20031,13 +21263,13 @@
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="251"/>
-      <c r="B36" s="262"/>
-      <c r="C36" s="265"/>
-      <c r="D36" s="268"/>
-      <c r="E36" s="271"/>
-      <c r="F36" s="274"/>
-      <c r="G36" s="276"/>
+      <c r="A36" s="248"/>
+      <c r="B36" s="259"/>
+      <c r="C36" s="262"/>
+      <c r="D36" s="265"/>
+      <c r="E36" s="268"/>
+      <c r="F36" s="271"/>
+      <c r="G36" s="273"/>
       <c r="H36" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -20050,13 +21282,13 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="251"/>
-      <c r="B37" s="262"/>
-      <c r="C37" s="265"/>
-      <c r="D37" s="268"/>
-      <c r="E37" s="271"/>
-      <c r="F37" s="274"/>
-      <c r="G37" s="276"/>
+      <c r="A37" s="248"/>
+      <c r="B37" s="259"/>
+      <c r="C37" s="262"/>
+      <c r="D37" s="265"/>
+      <c r="E37" s="268"/>
+      <c r="F37" s="271"/>
+      <c r="G37" s="273"/>
       <c r="H37" s="10">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -20067,13 +21299,13 @@
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="251"/>
-      <c r="B38" s="262"/>
-      <c r="C38" s="265"/>
-      <c r="D38" s="268"/>
-      <c r="E38" s="271"/>
-      <c r="F38" s="274"/>
-      <c r="G38" s="276"/>
+      <c r="A38" s="248"/>
+      <c r="B38" s="259"/>
+      <c r="C38" s="262"/>
+      <c r="D38" s="265"/>
+      <c r="E38" s="268"/>
+      <c r="F38" s="271"/>
+      <c r="G38" s="273"/>
       <c r="H38" s="10">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -20086,13 +21318,13 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="251"/>
-      <c r="B39" s="262"/>
-      <c r="C39" s="265"/>
-      <c r="D39" s="268"/>
-      <c r="E39" s="271"/>
-      <c r="F39" s="274"/>
-      <c r="G39" s="276"/>
+      <c r="A39" s="248"/>
+      <c r="B39" s="259"/>
+      <c r="C39" s="262"/>
+      <c r="D39" s="265"/>
+      <c r="E39" s="268"/>
+      <c r="F39" s="271"/>
+      <c r="G39" s="273"/>
       <c r="H39" s="10">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -20105,13 +21337,13 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="251"/>
-      <c r="B40" s="262"/>
-      <c r="C40" s="265"/>
-      <c r="D40" s="268"/>
-      <c r="E40" s="271"/>
-      <c r="F40" s="274"/>
-      <c r="G40" s="276"/>
+      <c r="A40" s="248"/>
+      <c r="B40" s="259"/>
+      <c r="C40" s="262"/>
+      <c r="D40" s="265"/>
+      <c r="E40" s="268"/>
+      <c r="F40" s="271"/>
+      <c r="G40" s="273"/>
       <c r="H40" s="10">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -20124,13 +21356,13 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="251"/>
-      <c r="B41" s="262"/>
-      <c r="C41" s="265"/>
-      <c r="D41" s="268"/>
-      <c r="E41" s="271"/>
-      <c r="F41" s="274"/>
-      <c r="G41" s="276"/>
+      <c r="A41" s="248"/>
+      <c r="B41" s="259"/>
+      <c r="C41" s="262"/>
+      <c r="D41" s="265"/>
+      <c r="E41" s="268"/>
+      <c r="F41" s="271"/>
+      <c r="G41" s="273"/>
       <c r="H41" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -20141,13 +21373,13 @@
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="251"/>
-      <c r="B42" s="262"/>
-      <c r="C42" s="265"/>
-      <c r="D42" s="268"/>
-      <c r="E42" s="271"/>
-      <c r="F42" s="274"/>
-      <c r="G42" s="276"/>
+      <c r="A42" s="248"/>
+      <c r="B42" s="259"/>
+      <c r="C42" s="262"/>
+      <c r="D42" s="265"/>
+      <c r="E42" s="268"/>
+      <c r="F42" s="271"/>
+      <c r="G42" s="273"/>
       <c r="H42" s="10">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -20160,13 +21392,13 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="251"/>
-      <c r="B43" s="262"/>
-      <c r="C43" s="265"/>
-      <c r="D43" s="268"/>
-      <c r="E43" s="271"/>
-      <c r="F43" s="274"/>
-      <c r="G43" s="276"/>
+      <c r="A43" s="248"/>
+      <c r="B43" s="259"/>
+      <c r="C43" s="262"/>
+      <c r="D43" s="265"/>
+      <c r="E43" s="268"/>
+      <c r="F43" s="271"/>
+      <c r="G43" s="273"/>
       <c r="H43" s="10">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -20177,13 +21409,13 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="251"/>
-      <c r="B44" s="262"/>
-      <c r="C44" s="265"/>
-      <c r="D44" s="268"/>
-      <c r="E44" s="271"/>
-      <c r="F44" s="274"/>
-      <c r="G44" s="276"/>
+      <c r="A44" s="248"/>
+      <c r="B44" s="259"/>
+      <c r="C44" s="262"/>
+      <c r="D44" s="265"/>
+      <c r="E44" s="268"/>
+      <c r="F44" s="271"/>
+      <c r="G44" s="273"/>
       <c r="H44" s="10">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -20196,13 +21428,13 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="251"/>
-      <c r="B45" s="262"/>
-      <c r="C45" s="265"/>
-      <c r="D45" s="268"/>
-      <c r="E45" s="271"/>
-      <c r="F45" s="274"/>
-      <c r="G45" s="276"/>
+      <c r="A45" s="248"/>
+      <c r="B45" s="259"/>
+      <c r="C45" s="262"/>
+      <c r="D45" s="265"/>
+      <c r="E45" s="268"/>
+      <c r="F45" s="271"/>
+      <c r="G45" s="273"/>
       <c r="H45" s="10">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -20213,13 +21445,13 @@
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="251"/>
-      <c r="B46" s="262"/>
-      <c r="C46" s="265"/>
-      <c r="D46" s="268"/>
-      <c r="E46" s="271"/>
-      <c r="F46" s="274"/>
-      <c r="G46" s="276"/>
+      <c r="A46" s="248"/>
+      <c r="B46" s="259"/>
+      <c r="C46" s="262"/>
+      <c r="D46" s="265"/>
+      <c r="E46" s="268"/>
+      <c r="F46" s="271"/>
+      <c r="G46" s="273"/>
       <c r="H46" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -20232,13 +21464,13 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="251"/>
-      <c r="B47" s="262"/>
-      <c r="C47" s="265"/>
-      <c r="D47" s="268"/>
-      <c r="E47" s="271"/>
-      <c r="F47" s="274"/>
-      <c r="G47" s="276"/>
+      <c r="A47" s="248"/>
+      <c r="B47" s="259"/>
+      <c r="C47" s="262"/>
+      <c r="D47" s="265"/>
+      <c r="E47" s="268"/>
+      <c r="F47" s="271"/>
+      <c r="G47" s="273"/>
       <c r="H47" s="10">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -20251,13 +21483,13 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="251"/>
-      <c r="B48" s="262"/>
-      <c r="C48" s="265"/>
-      <c r="D48" s="268"/>
-      <c r="E48" s="271"/>
-      <c r="F48" s="274"/>
-      <c r="G48" s="276"/>
+      <c r="A48" s="248"/>
+      <c r="B48" s="259"/>
+      <c r="C48" s="262"/>
+      <c r="D48" s="265"/>
+      <c r="E48" s="268"/>
+      <c r="F48" s="271"/>
+      <c r="G48" s="273"/>
       <c r="H48" s="10">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -20270,13 +21502,13 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="251"/>
-      <c r="B49" s="262"/>
-      <c r="C49" s="265"/>
-      <c r="D49" s="268"/>
-      <c r="E49" s="271"/>
-      <c r="F49" s="274"/>
-      <c r="G49" s="276"/>
+      <c r="A49" s="248"/>
+      <c r="B49" s="259"/>
+      <c r="C49" s="262"/>
+      <c r="D49" s="265"/>
+      <c r="E49" s="268"/>
+      <c r="F49" s="271"/>
+      <c r="G49" s="273"/>
       <c r="H49" s="10">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -20289,13 +21521,13 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="251"/>
-      <c r="B50" s="262"/>
-      <c r="C50" s="265"/>
-      <c r="D50" s="268"/>
-      <c r="E50" s="271"/>
-      <c r="F50" s="274"/>
-      <c r="G50" s="276"/>
+      <c r="A50" s="248"/>
+      <c r="B50" s="259"/>
+      <c r="C50" s="262"/>
+      <c r="D50" s="265"/>
+      <c r="E50" s="268"/>
+      <c r="F50" s="271"/>
+      <c r="G50" s="273"/>
       <c r="H50" s="10">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -20306,13 +21538,13 @@
       <c r="J50" s="9"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="251"/>
-      <c r="B51" s="262"/>
-      <c r="C51" s="265"/>
-      <c r="D51" s="268"/>
-      <c r="E51" s="271"/>
-      <c r="F51" s="274"/>
-      <c r="G51" s="276"/>
+      <c r="A51" s="248"/>
+      <c r="B51" s="259"/>
+      <c r="C51" s="262"/>
+      <c r="D51" s="265"/>
+      <c r="E51" s="268"/>
+      <c r="F51" s="271"/>
+      <c r="G51" s="273"/>
       <c r="H51" s="10">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -20326,13 +21558,13 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="251"/>
-      <c r="B52" s="262"/>
-      <c r="C52" s="265"/>
-      <c r="D52" s="268"/>
-      <c r="E52" s="271"/>
-      <c r="F52" s="274"/>
-      <c r="G52" s="276"/>
+      <c r="A52" s="248"/>
+      <c r="B52" s="259"/>
+      <c r="C52" s="262"/>
+      <c r="D52" s="265"/>
+      <c r="E52" s="268"/>
+      <c r="F52" s="271"/>
+      <c r="G52" s="273"/>
       <c r="H52" s="10">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -20345,13 +21577,13 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="251"/>
-      <c r="B53" s="262"/>
-      <c r="C53" s="265"/>
-      <c r="D53" s="268"/>
-      <c r="E53" s="271"/>
-      <c r="F53" s="274"/>
-      <c r="G53" s="276"/>
+      <c r="A53" s="248"/>
+      <c r="B53" s="259"/>
+      <c r="C53" s="262"/>
+      <c r="D53" s="265"/>
+      <c r="E53" s="268"/>
+      <c r="F53" s="271"/>
+      <c r="G53" s="273"/>
       <c r="H53" s="10">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -20369,13 +21601,13 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="251"/>
-      <c r="B54" s="262"/>
-      <c r="C54" s="265"/>
-      <c r="D54" s="268"/>
-      <c r="E54" s="271"/>
-      <c r="F54" s="274"/>
-      <c r="G54" s="276"/>
+      <c r="A54" s="248"/>
+      <c r="B54" s="259"/>
+      <c r="C54" s="262"/>
+      <c r="D54" s="265"/>
+      <c r="E54" s="268"/>
+      <c r="F54" s="271"/>
+      <c r="G54" s="273"/>
       <c r="H54" s="10">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -20394,13 +21626,13 @@
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="251"/>
-      <c r="B55" s="262"/>
-      <c r="C55" s="265"/>
-      <c r="D55" s="268"/>
-      <c r="E55" s="271"/>
-      <c r="F55" s="274"/>
-      <c r="G55" s="276"/>
+      <c r="A55" s="248"/>
+      <c r="B55" s="259"/>
+      <c r="C55" s="262"/>
+      <c r="D55" s="265"/>
+      <c r="E55" s="268"/>
+      <c r="F55" s="271"/>
+      <c r="G55" s="273"/>
       <c r="H55" s="10">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -20417,13 +21649,13 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="251"/>
-      <c r="B56" s="262"/>
-      <c r="C56" s="265"/>
-      <c r="D56" s="268"/>
-      <c r="E56" s="271"/>
-      <c r="F56" s="274"/>
-      <c r="G56" s="276"/>
+      <c r="A56" s="248"/>
+      <c r="B56" s="259"/>
+      <c r="C56" s="262"/>
+      <c r="D56" s="265"/>
+      <c r="E56" s="268"/>
+      <c r="F56" s="271"/>
+      <c r="G56" s="273"/>
       <c r="H56" s="10">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -20442,13 +21674,13 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="251"/>
-      <c r="B57" s="262"/>
-      <c r="C57" s="265"/>
-      <c r="D57" s="268"/>
-      <c r="E57" s="271"/>
-      <c r="F57" s="274"/>
-      <c r="G57" s="276"/>
+      <c r="A57" s="248"/>
+      <c r="B57" s="259"/>
+      <c r="C57" s="262"/>
+      <c r="D57" s="265"/>
+      <c r="E57" s="268"/>
+      <c r="F57" s="271"/>
+      <c r="G57" s="273"/>
       <c r="H57" s="10">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -20468,13 +21700,13 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="251"/>
-      <c r="B58" s="262"/>
-      <c r="C58" s="265"/>
-      <c r="D58" s="268"/>
-      <c r="E58" s="271"/>
-      <c r="F58" s="274"/>
-      <c r="G58" s="276"/>
+      <c r="A58" s="248"/>
+      <c r="B58" s="259"/>
+      <c r="C58" s="262"/>
+      <c r="D58" s="265"/>
+      <c r="E58" s="268"/>
+      <c r="F58" s="271"/>
+      <c r="G58" s="273"/>
       <c r="H58" s="10">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -20487,13 +21719,13 @@
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="251"/>
-      <c r="B59" s="262"/>
-      <c r="C59" s="265"/>
-      <c r="D59" s="268"/>
-      <c r="E59" s="272"/>
-      <c r="F59" s="274"/>
-      <c r="G59" s="277"/>
+      <c r="A59" s="248"/>
+      <c r="B59" s="259"/>
+      <c r="C59" s="262"/>
+      <c r="D59" s="265"/>
+      <c r="E59" s="269"/>
+      <c r="F59" s="271"/>
+      <c r="G59" s="274"/>
       <c r="H59" s="10">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -20506,10 +21738,10 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="251"/>
-      <c r="B60" s="262"/>
-      <c r="C60" s="265"/>
-      <c r="D60" s="268"/>
+      <c r="A60" s="248"/>
+      <c r="B60" s="259"/>
+      <c r="C60" s="262"/>
+      <c r="D60" s="265"/>
       <c r="E60" s="17">
         <f>B64+1</f>
         <v>29</v>
@@ -20518,15 +21750,15 @@
         <v>26</v>
       </c>
       <c r="G60" s="9"/>
-      <c r="H60" s="253"/>
-      <c r="I60" s="254"/>
-      <c r="J60" s="255"/>
+      <c r="H60" s="250"/>
+      <c r="I60" s="251"/>
+      <c r="J60" s="252"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="251"/>
-      <c r="B61" s="263"/>
-      <c r="C61" s="266"/>
-      <c r="D61" s="269"/>
+      <c r="A61" s="248"/>
+      <c r="B61" s="260"/>
+      <c r="C61" s="263"/>
+      <c r="D61" s="266"/>
       <c r="E61" s="17">
         <f>E60 +1</f>
         <v>30</v>
@@ -20537,12 +21769,12 @@
       <c r="G61" s="9">
         <v>53</v>
       </c>
-      <c r="H61" s="259"/>
-      <c r="I61" s="260"/>
-      <c r="J61" s="261"/>
+      <c r="H61" s="256"/>
+      <c r="I61" s="257"/>
+      <c r="J61" s="258"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="251"/>
+      <c r="A62" s="248"/>
       <c r="B62" s="7">
         <f>B26+1</f>
         <v>26</v>
@@ -20553,15 +21785,15 @@
       <c r="D62" s="9">
         <v>18</v>
       </c>
-      <c r="E62" s="253"/>
-      <c r="F62" s="254"/>
-      <c r="G62" s="254"/>
-      <c r="H62" s="254"/>
-      <c r="I62" s="254"/>
-      <c r="J62" s="255"/>
+      <c r="E62" s="250"/>
+      <c r="F62" s="251"/>
+      <c r="G62" s="251"/>
+      <c r="H62" s="251"/>
+      <c r="I62" s="251"/>
+      <c r="J62" s="252"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="251"/>
+      <c r="A63" s="248"/>
       <c r="B63" s="7">
         <f>B62 + 1</f>
         <v>27</v>
@@ -20572,15 +21804,15 @@
       <c r="D63" s="9">
         <v>36</v>
       </c>
-      <c r="E63" s="256"/>
-      <c r="F63" s="257"/>
-      <c r="G63" s="257"/>
-      <c r="H63" s="257"/>
-      <c r="I63" s="257"/>
-      <c r="J63" s="258"/>
+      <c r="E63" s="253"/>
+      <c r="F63" s="254"/>
+      <c r="G63" s="254"/>
+      <c r="H63" s="254"/>
+      <c r="I63" s="254"/>
+      <c r="J63" s="255"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="252"/>
+      <c r="A64" s="249"/>
       <c r="B64" s="7">
         <f>B63 + 1</f>
         <v>28</v>
@@ -20591,12 +21823,12 @@
       <c r="D64" s="9">
         <v>37</v>
       </c>
-      <c r="E64" s="259"/>
-      <c r="F64" s="260"/>
-      <c r="G64" s="260"/>
-      <c r="H64" s="260"/>
-      <c r="I64" s="260"/>
-      <c r="J64" s="261"/>
+      <c r="E64" s="256"/>
+      <c r="F64" s="257"/>
+      <c r="G64" s="257"/>
+      <c r="H64" s="257"/>
+      <c r="I64" s="257"/>
+      <c r="J64" s="258"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -20617,16 +21849,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -20648,7 +21878,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="275" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="20">
@@ -20657,15 +21887,15 @@
       <c r="C2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="253"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="255"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="252"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="279"/>
+      <c r="A3" s="276"/>
       <c r="B3" s="20">
         <f>B2 + 1</f>
         <v>2</v>
@@ -20673,15 +21903,15 @@
       <c r="C3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="258"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="255"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="279"/>
+      <c r="A4" s="276"/>
       <c r="B4" s="20">
         <f t="shared" ref="B4:B27" si="0">B3 + 1</f>
         <v>3</v>
@@ -20689,15 +21919,15 @@
       <c r="C4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="257"/>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="258"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="255"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="279"/>
+      <c r="A5" s="276"/>
       <c r="B5" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -20705,15 +21935,15 @@
       <c r="C5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="256"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="258"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="255"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="279"/>
+      <c r="A6" s="276"/>
       <c r="B6" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -20721,15 +21951,15 @@
       <c r="C6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="256"/>
-      <c r="E6" s="257"/>
-      <c r="F6" s="257"/>
-      <c r="G6" s="257"/>
-      <c r="H6" s="257"/>
-      <c r="I6" s="258"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="255"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="279"/>
+      <c r="A7" s="276"/>
       <c r="B7" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -20737,15 +21967,15 @@
       <c r="C7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="256"/>
-      <c r="E7" s="257"/>
-      <c r="F7" s="257"/>
-      <c r="G7" s="257"/>
-      <c r="H7" s="257"/>
-      <c r="I7" s="258"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="255"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="279"/>
+      <c r="A8" s="276"/>
       <c r="B8" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -20753,15 +21983,15 @@
       <c r="C8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="256"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="257"/>
-      <c r="G8" s="257"/>
-      <c r="H8" s="257"/>
-      <c r="I8" s="258"/>
+      <c r="D8" s="253"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="254"/>
+      <c r="I8" s="255"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="279"/>
+      <c r="A9" s="276"/>
       <c r="B9" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -20769,15 +21999,15 @@
       <c r="C9" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="256"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="257"/>
-      <c r="G9" s="257"/>
-      <c r="H9" s="257"/>
-      <c r="I9" s="258"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="255"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="279"/>
+      <c r="A10" s="276"/>
       <c r="B10" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -20785,15 +22015,15 @@
       <c r="C10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="256"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="257"/>
-      <c r="G10" s="257"/>
-      <c r="H10" s="257"/>
-      <c r="I10" s="258"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="255"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="279"/>
+      <c r="A11" s="276"/>
       <c r="B11" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -20801,15 +22031,15 @@
       <c r="C11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="256"/>
-      <c r="E11" s="257"/>
-      <c r="F11" s="257"/>
-      <c r="G11" s="257"/>
-      <c r="H11" s="257"/>
-      <c r="I11" s="258"/>
+      <c r="D11" s="253"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="254"/>
+      <c r="I11" s="255"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="279"/>
+      <c r="A12" s="276"/>
       <c r="B12" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -20817,15 +22047,15 @@
       <c r="C12" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="256"/>
-      <c r="E12" s="257"/>
-      <c r="F12" s="257"/>
-      <c r="G12" s="257"/>
-      <c r="H12" s="257"/>
-      <c r="I12" s="258"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="254"/>
+      <c r="F12" s="254"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="255"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="279"/>
+      <c r="A13" s="276"/>
       <c r="B13" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -20833,15 +22063,15 @@
       <c r="C13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="256"/>
-      <c r="E13" s="257"/>
-      <c r="F13" s="257"/>
-      <c r="G13" s="257"/>
-      <c r="H13" s="257"/>
-      <c r="I13" s="258"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="254"/>
+      <c r="I13" s="255"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="279"/>
+      <c r="A14" s="276"/>
       <c r="B14" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -20849,15 +22079,15 @@
       <c r="C14" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="256"/>
-      <c r="E14" s="257"/>
-      <c r="F14" s="257"/>
-      <c r="G14" s="257"/>
-      <c r="H14" s="257"/>
-      <c r="I14" s="258"/>
+      <c r="D14" s="253"/>
+      <c r="E14" s="254"/>
+      <c r="F14" s="254"/>
+      <c r="G14" s="254"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="255"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="279"/>
+      <c r="A15" s="276"/>
       <c r="B15" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -20865,15 +22095,15 @@
       <c r="C15" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="256"/>
-      <c r="E15" s="257"/>
-      <c r="F15" s="257"/>
-      <c r="G15" s="257"/>
-      <c r="H15" s="257"/>
-      <c r="I15" s="258"/>
+      <c r="D15" s="253"/>
+      <c r="E15" s="254"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="254"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="255"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="279"/>
+      <c r="A16" s="276"/>
       <c r="B16" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -20881,15 +22111,15 @@
       <c r="C16" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="256"/>
-      <c r="E16" s="257"/>
-      <c r="F16" s="257"/>
-      <c r="G16" s="257"/>
-      <c r="H16" s="257"/>
-      <c r="I16" s="258"/>
+      <c r="D16" s="253"/>
+      <c r="E16" s="254"/>
+      <c r="F16" s="254"/>
+      <c r="G16" s="254"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="255"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="279"/>
+      <c r="A17" s="276"/>
       <c r="B17" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -20897,15 +22127,15 @@
       <c r="C17" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="256"/>
-      <c r="E17" s="257"/>
-      <c r="F17" s="257"/>
-      <c r="G17" s="257"/>
-      <c r="H17" s="257"/>
-      <c r="I17" s="258"/>
+      <c r="D17" s="253"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="254"/>
+      <c r="G17" s="254"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="255"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="279"/>
+      <c r="A18" s="276"/>
       <c r="B18" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -20913,15 +22143,15 @@
       <c r="C18" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="256"/>
-      <c r="E18" s="257"/>
-      <c r="F18" s="257"/>
-      <c r="G18" s="257"/>
-      <c r="H18" s="257"/>
-      <c r="I18" s="258"/>
+      <c r="D18" s="253"/>
+      <c r="E18" s="254"/>
+      <c r="F18" s="254"/>
+      <c r="G18" s="254"/>
+      <c r="H18" s="254"/>
+      <c r="I18" s="255"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="279"/>
+      <c r="A19" s="276"/>
       <c r="B19" s="20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -20929,15 +22159,15 @@
       <c r="C19" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="256"/>
-      <c r="E19" s="257"/>
-      <c r="F19" s="257"/>
-      <c r="G19" s="257"/>
-      <c r="H19" s="257"/>
-      <c r="I19" s="258"/>
+      <c r="D19" s="253"/>
+      <c r="E19" s="254"/>
+      <c r="F19" s="254"/>
+      <c r="G19" s="254"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="255"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="279"/>
+      <c r="A20" s="276"/>
       <c r="B20" s="20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -20945,15 +22175,15 @@
       <c r="C20" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="256"/>
-      <c r="E20" s="257"/>
-      <c r="F20" s="257"/>
-      <c r="G20" s="257"/>
-      <c r="H20" s="257"/>
-      <c r="I20" s="258"/>
+      <c r="D20" s="253"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="255"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="279"/>
+      <c r="A21" s="276"/>
       <c r="B21" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -20961,15 +22191,15 @@
       <c r="C21" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="256"/>
-      <c r="E21" s="257"/>
-      <c r="F21" s="257"/>
-      <c r="G21" s="257"/>
-      <c r="H21" s="257"/>
-      <c r="I21" s="258"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="254"/>
+      <c r="G21" s="254"/>
+      <c r="H21" s="254"/>
+      <c r="I21" s="255"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="279"/>
+      <c r="A22" s="276"/>
       <c r="B22" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -20977,15 +22207,15 @@
       <c r="C22" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="256"/>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
-      <c r="H22" s="257"/>
-      <c r="I22" s="258"/>
+      <c r="D22" s="253"/>
+      <c r="E22" s="254"/>
+      <c r="F22" s="254"/>
+      <c r="G22" s="254"/>
+      <c r="H22" s="254"/>
+      <c r="I22" s="255"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="279"/>
+      <c r="A23" s="276"/>
       <c r="B23" s="20">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -20993,15 +22223,15 @@
       <c r="C23" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="256"/>
-      <c r="E23" s="257"/>
-      <c r="F23" s="257"/>
-      <c r="G23" s="257"/>
-      <c r="H23" s="257"/>
-      <c r="I23" s="258"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="254"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="254"/>
+      <c r="I23" s="255"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="279"/>
+      <c r="A24" s="276"/>
       <c r="B24" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -21009,15 +22239,15 @@
       <c r="C24" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="256"/>
-      <c r="E24" s="257"/>
-      <c r="F24" s="257"/>
-      <c r="G24" s="257"/>
-      <c r="H24" s="257"/>
-      <c r="I24" s="258"/>
+      <c r="D24" s="253"/>
+      <c r="E24" s="254"/>
+      <c r="F24" s="254"/>
+      <c r="G24" s="254"/>
+      <c r="H24" s="254"/>
+      <c r="I24" s="255"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="279"/>
+      <c r="A25" s="276"/>
       <c r="B25" s="20">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -21025,15 +22255,15 @@
       <c r="C25" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="256"/>
-      <c r="E25" s="257"/>
-      <c r="F25" s="257"/>
-      <c r="G25" s="257"/>
-      <c r="H25" s="257"/>
-      <c r="I25" s="258"/>
+      <c r="D25" s="253"/>
+      <c r="E25" s="254"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="255"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="279"/>
+      <c r="A26" s="276"/>
       <c r="B26" s="20">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -21041,15 +22271,15 @@
       <c r="C26" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="256"/>
-      <c r="E26" s="257"/>
-      <c r="F26" s="257"/>
-      <c r="G26" s="257"/>
-      <c r="H26" s="257"/>
-      <c r="I26" s="258"/>
+      <c r="D26" s="253"/>
+      <c r="E26" s="254"/>
+      <c r="F26" s="254"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="255"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="279"/>
+      <c r="A27" s="276"/>
       <c r="B27" s="20">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -21057,21 +22287,21 @@
       <c r="C27" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="256"/>
-      <c r="E27" s="257"/>
-      <c r="F27" s="257"/>
-      <c r="G27" s="257"/>
-      <c r="H27" s="257"/>
-      <c r="I27" s="258"/>
+      <c r="D27" s="253"/>
+      <c r="E27" s="254"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="255"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="279"/>
-      <c r="B28" s="281"/>
-      <c r="C28" s="284" t="s">
+      <c r="A28" s="276"/>
+      <c r="B28" s="278"/>
+      <c r="C28" s="281" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="240"/>
-      <c r="E28" s="284" t="s">
+      <c r="D28" s="237"/>
+      <c r="E28" s="281" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="20">
@@ -21081,15 +22311,15 @@
       <c r="G28" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="253"/>
-      <c r="I28" s="255"/>
+      <c r="H28" s="250"/>
+      <c r="I28" s="252"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="279"/>
-      <c r="B29" s="282"/>
-      <c r="C29" s="285"/>
-      <c r="D29" s="241"/>
-      <c r="E29" s="285"/>
+      <c r="A29" s="276"/>
+      <c r="B29" s="279"/>
+      <c r="C29" s="282"/>
+      <c r="D29" s="238"/>
+      <c r="E29" s="282"/>
       <c r="F29" s="20">
         <f>F28 +1</f>
         <v>34</v>
@@ -21097,15 +22327,15 @@
       <c r="G29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="256"/>
-      <c r="I29" s="258"/>
+      <c r="H29" s="253"/>
+      <c r="I29" s="255"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="279"/>
-      <c r="B30" s="282"/>
-      <c r="C30" s="285"/>
-      <c r="D30" s="241"/>
-      <c r="E30" s="285"/>
+      <c r="A30" s="276"/>
+      <c r="B30" s="279"/>
+      <c r="C30" s="282"/>
+      <c r="D30" s="238"/>
+      <c r="E30" s="282"/>
       <c r="F30" s="20">
         <f t="shared" ref="F30:F37" si="1">F29 +1</f>
         <v>35</v>
@@ -21113,15 +22343,15 @@
       <c r="G30" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="256"/>
-      <c r="I30" s="258"/>
+      <c r="H30" s="253"/>
+      <c r="I30" s="255"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="279"/>
-      <c r="B31" s="282"/>
-      <c r="C31" s="285"/>
-      <c r="D31" s="241"/>
-      <c r="E31" s="285"/>
+      <c r="A31" s="276"/>
+      <c r="B31" s="279"/>
+      <c r="C31" s="282"/>
+      <c r="D31" s="238"/>
+      <c r="E31" s="282"/>
       <c r="F31" s="20">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -21129,15 +22359,15 @@
       <c r="G31" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H31" s="256"/>
-      <c r="I31" s="258"/>
+      <c r="H31" s="253"/>
+      <c r="I31" s="255"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="279"/>
-      <c r="B32" s="282"/>
-      <c r="C32" s="285"/>
-      <c r="D32" s="241"/>
-      <c r="E32" s="285"/>
+      <c r="A32" s="276"/>
+      <c r="B32" s="279"/>
+      <c r="C32" s="282"/>
+      <c r="D32" s="238"/>
+      <c r="E32" s="282"/>
       <c r="F32" s="20">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -21145,15 +22375,15 @@
       <c r="G32" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H32" s="256"/>
-      <c r="I32" s="258"/>
+      <c r="H32" s="253"/>
+      <c r="I32" s="255"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="279"/>
-      <c r="B33" s="282"/>
-      <c r="C33" s="285"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="285"/>
+      <c r="A33" s="276"/>
+      <c r="B33" s="279"/>
+      <c r="C33" s="282"/>
+      <c r="D33" s="238"/>
+      <c r="E33" s="282"/>
       <c r="F33" s="20">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -21161,15 +22391,15 @@
       <c r="G33" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H33" s="256"/>
-      <c r="I33" s="258"/>
+      <c r="H33" s="253"/>
+      <c r="I33" s="255"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="279"/>
-      <c r="B34" s="282"/>
-      <c r="C34" s="285"/>
-      <c r="D34" s="241"/>
-      <c r="E34" s="285"/>
+      <c r="A34" s="276"/>
+      <c r="B34" s="279"/>
+      <c r="C34" s="282"/>
+      <c r="D34" s="238"/>
+      <c r="E34" s="282"/>
       <c r="F34" s="20">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -21177,15 +22407,15 @@
       <c r="G34" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H34" s="256"/>
-      <c r="I34" s="258"/>
+      <c r="H34" s="253"/>
+      <c r="I34" s="255"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="279"/>
-      <c r="B35" s="282"/>
-      <c r="C35" s="285"/>
-      <c r="D35" s="241"/>
-      <c r="E35" s="285"/>
+      <c r="A35" s="276"/>
+      <c r="B35" s="279"/>
+      <c r="C35" s="282"/>
+      <c r="D35" s="238"/>
+      <c r="E35" s="282"/>
       <c r="F35" s="20">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -21193,15 +22423,15 @@
       <c r="G35" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="256"/>
-      <c r="I35" s="258"/>
+      <c r="H35" s="253"/>
+      <c r="I35" s="255"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="279"/>
-      <c r="B36" s="282"/>
-      <c r="C36" s="285"/>
-      <c r="D36" s="241"/>
-      <c r="E36" s="285"/>
+      <c r="A36" s="276"/>
+      <c r="B36" s="279"/>
+      <c r="C36" s="282"/>
+      <c r="D36" s="238"/>
+      <c r="E36" s="282"/>
       <c r="F36" s="20">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -21209,15 +22439,15 @@
       <c r="G36" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H36" s="256"/>
-      <c r="I36" s="258"/>
+      <c r="H36" s="253"/>
+      <c r="I36" s="255"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="279"/>
-      <c r="B37" s="282"/>
-      <c r="C37" s="285"/>
-      <c r="D37" s="241"/>
-      <c r="E37" s="285"/>
+      <c r="A37" s="276"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="282"/>
+      <c r="D37" s="238"/>
+      <c r="E37" s="282"/>
       <c r="F37" s="20">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -21225,17 +22455,17 @@
       <c r="G37" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="259"/>
-      <c r="I37" s="261"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="258"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="279"/>
-      <c r="B38" s="282"/>
-      <c r="C38" s="285"/>
-      <c r="D38" s="241"/>
-      <c r="E38" s="285"/>
-      <c r="F38" s="240"/>
-      <c r="G38" s="284" t="s">
+      <c r="A38" s="276"/>
+      <c r="B38" s="279"/>
+      <c r="C38" s="282"/>
+      <c r="D38" s="238"/>
+      <c r="E38" s="282"/>
+      <c r="F38" s="237"/>
+      <c r="G38" s="281" t="s">
         <v>122</v>
       </c>
       <c r="H38" s="20">
@@ -21247,13 +22477,13 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="279"/>
-      <c r="B39" s="282"/>
-      <c r="C39" s="285"/>
-      <c r="D39" s="241"/>
-      <c r="E39" s="285"/>
-      <c r="F39" s="241"/>
-      <c r="G39" s="285"/>
+      <c r="A39" s="276"/>
+      <c r="B39" s="279"/>
+      <c r="C39" s="282"/>
+      <c r="D39" s="238"/>
+      <c r="E39" s="282"/>
+      <c r="F39" s="238"/>
+      <c r="G39" s="282"/>
       <c r="H39" s="20">
         <f>H38 +1</f>
         <v>44</v>
@@ -21263,13 +22493,13 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="279"/>
-      <c r="B40" s="282"/>
-      <c r="C40" s="285"/>
-      <c r="D40" s="241"/>
-      <c r="E40" s="285"/>
-      <c r="F40" s="241"/>
-      <c r="G40" s="285"/>
+      <c r="A40" s="276"/>
+      <c r="B40" s="279"/>
+      <c r="C40" s="282"/>
+      <c r="D40" s="238"/>
+      <c r="E40" s="282"/>
+      <c r="F40" s="238"/>
+      <c r="G40" s="282"/>
       <c r="H40" s="20">
         <f t="shared" ref="H40:H42" si="2">H39 +1</f>
         <v>45</v>
@@ -21279,13 +22509,13 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="279"/>
-      <c r="B41" s="282"/>
-      <c r="C41" s="285"/>
-      <c r="D41" s="241"/>
-      <c r="E41" s="285"/>
-      <c r="F41" s="241"/>
-      <c r="G41" s="285"/>
+      <c r="A41" s="276"/>
+      <c r="B41" s="279"/>
+      <c r="C41" s="282"/>
+      <c r="D41" s="238"/>
+      <c r="E41" s="282"/>
+      <c r="F41" s="238"/>
+      <c r="G41" s="282"/>
       <c r="H41" s="20">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -21295,13 +22525,13 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="279"/>
-      <c r="B42" s="282"/>
-      <c r="C42" s="285"/>
-      <c r="D42" s="241"/>
-      <c r="E42" s="285"/>
-      <c r="F42" s="241"/>
-      <c r="G42" s="286"/>
+      <c r="A42" s="276"/>
+      <c r="B42" s="279"/>
+      <c r="C42" s="282"/>
+      <c r="D42" s="238"/>
+      <c r="E42" s="282"/>
+      <c r="F42" s="238"/>
+      <c r="G42" s="283"/>
       <c r="H42" s="20">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -21311,11 +22541,11 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="279"/>
-      <c r="B43" s="282"/>
-      <c r="C43" s="285"/>
-      <c r="D43" s="241"/>
-      <c r="E43" s="285"/>
+      <c r="A43" s="276"/>
+      <c r="B43" s="279"/>
+      <c r="C43" s="282"/>
+      <c r="D43" s="238"/>
+      <c r="E43" s="282"/>
       <c r="F43" s="20">
         <f>H42+1</f>
         <v>48</v>
@@ -21323,15 +22553,15 @@
       <c r="G43" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="H43" s="254"/>
-      <c r="I43" s="255"/>
+      <c r="H43" s="251"/>
+      <c r="I43" s="252"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="279"/>
-      <c r="B44" s="282"/>
-      <c r="C44" s="285"/>
-      <c r="D44" s="242"/>
-      <c r="E44" s="286"/>
+      <c r="A44" s="276"/>
+      <c r="B44" s="279"/>
+      <c r="C44" s="282"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="283"/>
       <c r="F44" s="20">
         <f>F43+1</f>
         <v>49</v>
@@ -21339,13 +22569,13 @@
       <c r="G44" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H44" s="257"/>
-      <c r="I44" s="258"/>
+      <c r="H44" s="254"/>
+      <c r="I44" s="255"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="279"/>
-      <c r="B45" s="282"/>
-      <c r="C45" s="285"/>
+      <c r="A45" s="276"/>
+      <c r="B45" s="279"/>
+      <c r="C45" s="282"/>
       <c r="D45" s="20">
         <f>B27 +1</f>
         <v>27</v>
@@ -21353,15 +22583,15 @@
       <c r="E45" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="253"/>
-      <c r="G45" s="254"/>
-      <c r="H45" s="257"/>
-      <c r="I45" s="258"/>
+      <c r="F45" s="250"/>
+      <c r="G45" s="251"/>
+      <c r="H45" s="254"/>
+      <c r="I45" s="255"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="279"/>
-      <c r="B46" s="282"/>
-      <c r="C46" s="285"/>
+      <c r="A46" s="276"/>
+      <c r="B46" s="279"/>
+      <c r="C46" s="282"/>
       <c r="D46" s="20">
         <f>D45 +1</f>
         <v>28</v>
@@ -21369,15 +22599,15 @@
       <c r="E46" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="256"/>
-      <c r="G46" s="257"/>
-      <c r="H46" s="257"/>
-      <c r="I46" s="258"/>
+      <c r="F46" s="253"/>
+      <c r="G46" s="254"/>
+      <c r="H46" s="254"/>
+      <c r="I46" s="255"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="279"/>
-      <c r="B47" s="282"/>
-      <c r="C47" s="285"/>
+      <c r="A47" s="276"/>
+      <c r="B47" s="279"/>
+      <c r="C47" s="282"/>
       <c r="D47" s="20">
         <f t="shared" ref="D47:D50" si="3">D46 +1</f>
         <v>29</v>
@@ -21385,15 +22615,15 @@
       <c r="E47" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="256"/>
-      <c r="G47" s="257"/>
-      <c r="H47" s="257"/>
-      <c r="I47" s="258"/>
+      <c r="F47" s="253"/>
+      <c r="G47" s="254"/>
+      <c r="H47" s="254"/>
+      <c r="I47" s="255"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="279"/>
-      <c r="B48" s="282"/>
-      <c r="C48" s="285"/>
+      <c r="A48" s="276"/>
+      <c r="B48" s="279"/>
+      <c r="C48" s="282"/>
       <c r="D48" s="20">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -21401,15 +22631,15 @@
       <c r="E48" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="256"/>
-      <c r="G48" s="257"/>
-      <c r="H48" s="257"/>
-      <c r="I48" s="258"/>
+      <c r="F48" s="253"/>
+      <c r="G48" s="254"/>
+      <c r="H48" s="254"/>
+      <c r="I48" s="255"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="279"/>
-      <c r="B49" s="282"/>
-      <c r="C49" s="285"/>
+      <c r="A49" s="276"/>
+      <c r="B49" s="279"/>
+      <c r="C49" s="282"/>
       <c r="D49" s="20">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -21417,15 +22647,15 @@
       <c r="E49" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="256"/>
-      <c r="G49" s="257"/>
-      <c r="H49" s="257"/>
-      <c r="I49" s="258"/>
+      <c r="F49" s="253"/>
+      <c r="G49" s="254"/>
+      <c r="H49" s="254"/>
+      <c r="I49" s="255"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="280"/>
-      <c r="B50" s="283"/>
-      <c r="C50" s="286"/>
+      <c r="A50" s="277"/>
+      <c r="B50" s="280"/>
+      <c r="C50" s="283"/>
       <c r="D50" s="20">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -21433,10 +22663,10 @@
       <c r="E50" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="259"/>
-      <c r="G50" s="260"/>
-      <c r="H50" s="260"/>
-      <c r="I50" s="261"/>
+      <c r="F50" s="256"/>
+      <c r="G50" s="257"/>
+      <c r="H50" s="257"/>
+      <c r="I50" s="258"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -21458,13 +22688,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -24430,13 +25658,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:M43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -25010,13 +26236,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:M56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6"/>
   <cols>
@@ -26105,13 +27329,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BH15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -26181,72 +27403,72 @@
     </row>
     <row r="3" spans="1:60" ht="13.8" thickBot="1"/>
     <row r="4" spans="1:60">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="284" t="s">
         <v>311</v>
       </c>
-      <c r="B4" s="288"/>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288"/>
-      <c r="E4" s="288"/>
-      <c r="F4" s="289" t="s">
+      <c r="B4" s="285"/>
+      <c r="C4" s="285"/>
+      <c r="D4" s="285"/>
+      <c r="E4" s="285"/>
+      <c r="F4" s="286" t="s">
         <v>312</v>
       </c>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
-      <c r="M4" s="290"/>
-      <c r="N4" s="291"/>
-      <c r="O4" s="291"/>
-      <c r="P4" s="291"/>
-      <c r="Q4" s="291"/>
-      <c r="R4" s="291"/>
-      <c r="S4" s="291"/>
-      <c r="T4" s="291"/>
-      <c r="U4" s="291"/>
-      <c r="V4" s="291"/>
-      <c r="W4" s="291"/>
-      <c r="X4" s="291"/>
-      <c r="Y4" s="291"/>
-      <c r="Z4" s="291"/>
-      <c r="AA4" s="291"/>
-      <c r="AB4" s="291"/>
-      <c r="AC4" s="291"/>
-      <c r="AD4" s="291"/>
-      <c r="AE4" s="291"/>
-      <c r="AF4" s="291"/>
-      <c r="AG4" s="291"/>
-      <c r="AH4" s="291"/>
-      <c r="AI4" s="291"/>
-      <c r="AJ4" s="291"/>
-      <c r="AK4" s="291"/>
-      <c r="AL4" s="291"/>
-      <c r="AM4" s="291"/>
-      <c r="AN4" s="291"/>
-      <c r="AO4" s="291"/>
-      <c r="AP4" s="291"/>
-      <c r="AQ4" s="291"/>
-      <c r="AR4" s="291"/>
-      <c r="AS4" s="291"/>
-      <c r="AT4" s="291"/>
-      <c r="AU4" s="291"/>
-      <c r="AV4" s="291"/>
-      <c r="AW4" s="291"/>
-      <c r="AX4" s="291"/>
-      <c r="AY4" s="292"/>
-      <c r="AZ4" s="293" t="s">
+      <c r="G4" s="287"/>
+      <c r="H4" s="287"/>
+      <c r="I4" s="287"/>
+      <c r="J4" s="287"/>
+      <c r="K4" s="287"/>
+      <c r="L4" s="287"/>
+      <c r="M4" s="287"/>
+      <c r="N4" s="288"/>
+      <c r="O4" s="288"/>
+      <c r="P4" s="288"/>
+      <c r="Q4" s="288"/>
+      <c r="R4" s="288"/>
+      <c r="S4" s="288"/>
+      <c r="T4" s="288"/>
+      <c r="U4" s="288"/>
+      <c r="V4" s="288"/>
+      <c r="W4" s="288"/>
+      <c r="X4" s="288"/>
+      <c r="Y4" s="288"/>
+      <c r="Z4" s="288"/>
+      <c r="AA4" s="288"/>
+      <c r="AB4" s="288"/>
+      <c r="AC4" s="288"/>
+      <c r="AD4" s="288"/>
+      <c r="AE4" s="288"/>
+      <c r="AF4" s="288"/>
+      <c r="AG4" s="288"/>
+      <c r="AH4" s="288"/>
+      <c r="AI4" s="288"/>
+      <c r="AJ4" s="288"/>
+      <c r="AK4" s="288"/>
+      <c r="AL4" s="288"/>
+      <c r="AM4" s="288"/>
+      <c r="AN4" s="288"/>
+      <c r="AO4" s="288"/>
+      <c r="AP4" s="288"/>
+      <c r="AQ4" s="288"/>
+      <c r="AR4" s="288"/>
+      <c r="AS4" s="288"/>
+      <c r="AT4" s="288"/>
+      <c r="AU4" s="288"/>
+      <c r="AV4" s="288"/>
+      <c r="AW4" s="288"/>
+      <c r="AX4" s="288"/>
+      <c r="AY4" s="289"/>
+      <c r="AZ4" s="290" t="s">
         <v>313</v>
       </c>
-      <c r="BA4" s="294"/>
-      <c r="BB4" s="294"/>
-      <c r="BC4" s="294"/>
-      <c r="BD4" s="294"/>
-      <c r="BE4" s="294"/>
-      <c r="BF4" s="294"/>
-      <c r="BG4" s="294"/>
-      <c r="BH4" s="295"/>
+      <c r="BA4" s="291"/>
+      <c r="BB4" s="291"/>
+      <c r="BC4" s="291"/>
+      <c r="BD4" s="291"/>
+      <c r="BE4" s="291"/>
+      <c r="BF4" s="291"/>
+      <c r="BG4" s="291"/>
+      <c r="BH4" s="292"/>
     </row>
     <row r="5" spans="1:60" ht="13.8" thickBot="1">
       <c r="A5" s="64" t="s">
@@ -28213,9 +29435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE0050E-661A-49DC-AA2B-002DE39E8E3A}">
   <dimension ref="B2:P135"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="K124" sqref="K124"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6"/>
   <sheetData>
@@ -28239,155 +29459,178 @@
         <v>718</v>
       </c>
     </row>
-    <row r="110" spans="2:3">
+    <row r="110" spans="2:14">
       <c r="B110" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
+    <row r="111" spans="2:14">
       <c r="C111" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
-      <c r="C112" t="s">
+    <row r="112" spans="2:14">
+      <c r="C112" s="199" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="114" spans="2:3">
+      <c r="D112" s="199"/>
+      <c r="E112" s="199"/>
+      <c r="F112" s="199"/>
+      <c r="G112" s="199"/>
+      <c r="H112" s="199"/>
+      <c r="I112" s="199"/>
+      <c r="J112" s="199"/>
+      <c r="K112" s="199"/>
+      <c r="L112" s="199"/>
+      <c r="M112" s="199"/>
+      <c r="N112" s="199"/>
+    </row>
+    <row r="114" spans="2:13">
       <c r="C114" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="115" spans="2:3">
-      <c r="C115" t="s">
+    <row r="115" spans="2:13">
+      <c r="C115" s="199" t="s">
+        <v>783</v>
+      </c>
+      <c r="D115" s="199"/>
+      <c r="E115" s="199"/>
+      <c r="F115" s="199"/>
+      <c r="G115" s="199"/>
+      <c r="H115" s="199"/>
+      <c r="I115" s="199"/>
+      <c r="J115" s="199"/>
+      <c r="K115" s="199"/>
+      <c r="L115" s="199"/>
+      <c r="M115" s="199"/>
+    </row>
+    <row r="118" spans="2:13">
+      <c r="B118" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="118" spans="2:3">
-      <c r="B118" t="s">
+    <row r="119" spans="2:13">
+      <c r="C119" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="119" spans="2:3">
-      <c r="C119" t="s">
+    <row r="121" spans="2:13">
+      <c r="C121" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="121" spans="2:3">
-      <c r="C121" t="s">
+    <row r="122" spans="2:13">
+      <c r="C122" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="122" spans="2:3">
-      <c r="C122" t="s">
+    <row r="125" spans="2:13">
+      <c r="B125" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="125" spans="2:3">
-      <c r="B125" t="s">
+    <row r="126" spans="2:13">
+      <c r="C126" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="126" spans="2:3">
-      <c r="C126" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3">
+    <row r="128" spans="2:13">
       <c r="C128" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="129" spans="3:16">
       <c r="C129" s="150" t="s">
+        <v>730</v>
+      </c>
+      <c r="D129" s="200" t="s">
         <v>731</v>
       </c>
-      <c r="D129" s="202" t="s">
+      <c r="E129" s="201"/>
+      <c r="F129" s="200" t="s">
         <v>732</v>
       </c>
-      <c r="E129" s="203"/>
-      <c r="F129" s="202" t="s">
-        <v>733</v>
-      </c>
-      <c r="G129" s="204"/>
-      <c r="H129" s="203"/>
+      <c r="G129" s="202"/>
+      <c r="H129" s="201"/>
     </row>
     <row r="131" spans="3:16">
       <c r="C131" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="132" spans="3:16">
-      <c r="C132" s="205" t="s">
+      <c r="C132" s="203" t="s">
+        <v>733</v>
+      </c>
+      <c r="D132" s="204"/>
+      <c r="E132" s="191" t="s">
         <v>734</v>
       </c>
-      <c r="D132" s="206"/>
-      <c r="E132" s="191" t="s">
+      <c r="F132" s="200" t="s">
+        <v>739</v>
+      </c>
+      <c r="G132" s="201"/>
+      <c r="H132" s="200" t="s">
         <v>735</v>
       </c>
-      <c r="F132" s="202" t="s">
-        <v>740</v>
-      </c>
-      <c r="G132" s="203"/>
-      <c r="H132" s="202" t="s">
+      <c r="I132" s="201"/>
+      <c r="J132" s="200" t="s">
         <v>736</v>
       </c>
-      <c r="I132" s="203"/>
-      <c r="J132" s="202" t="s">
+      <c r="K132" s="201"/>
+      <c r="L132" s="200" t="s">
         <v>737</v>
       </c>
-      <c r="K132" s="203"/>
-      <c r="L132" s="202" t="s">
+      <c r="M132" s="201"/>
+      <c r="N132" s="200" t="s">
         <v>738</v>
       </c>
-      <c r="M132" s="203"/>
-      <c r="N132" s="202" t="s">
-        <v>739</v>
-      </c>
-      <c r="O132" s="204"/>
-      <c r="P132" s="203"/>
+      <c r="O132" s="202"/>
+      <c r="P132" s="201"/>
     </row>
     <row r="134" spans="3:16">
       <c r="C134" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="135" spans="3:16">
       <c r="C135" s="150" t="s">
-        <v>730</v>
-      </c>
-      <c r="D135" s="202" t="s">
+        <v>729</v>
+      </c>
+      <c r="D135" s="200" t="s">
+        <v>740</v>
+      </c>
+      <c r="E135" s="201"/>
+      <c r="F135" s="200" t="s">
         <v>741</v>
       </c>
-      <c r="E135" s="203"/>
-      <c r="F135" s="202" t="s">
+      <c r="G135" s="201"/>
+      <c r="H135" s="200" t="s">
         <v>742</v>
       </c>
-      <c r="G135" s="203"/>
-      <c r="H135" s="202" t="s">
+      <c r="I135" s="201"/>
+      <c r="J135" s="200" t="s">
         <v>743</v>
       </c>
-      <c r="I135" s="203"/>
-      <c r="J135" s="202" t="s">
-        <v>744</v>
-      </c>
-      <c r="K135" s="203"/>
+      <c r="K135" s="201"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L132:M132"/>
-    <mergeCell ref="N132:P132"/>
+  <mergeCells count="14">
     <mergeCell ref="D135:E135"/>
     <mergeCell ref="F135:G135"/>
     <mergeCell ref="H135:I135"/>
     <mergeCell ref="J135:K135"/>
     <mergeCell ref="J132:K132"/>
+    <mergeCell ref="C115:M115"/>
+    <mergeCell ref="C112:N112"/>
     <mergeCell ref="D129:E129"/>
     <mergeCell ref="F129:H129"/>
     <mergeCell ref="C132:D132"/>
     <mergeCell ref="F132:G132"/>
     <mergeCell ref="H132:I132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:P132"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28398,11 +29641,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CD0F2B-4810-4DAD-8C7A-F53E24F03054}">
-  <dimension ref="A2:C391"/>
+  <dimension ref="A2:AA395"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6"/>
   <cols>
@@ -28410,77 +29651,133 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="192" t="s">
-        <v>763</v>
+      <c r="A2" s="195" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="193" t="s">
+        <v>764</v>
+      </c>
+      <c r="C3" s="193"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="195" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="193" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="193" t="s">
         <v>766</v>
       </c>
-      <c r="C3" s="193"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="193" t="s">
+    </row>
+    <row r="82" spans="2:27">
+      <c r="U82" s="150" t="s">
+        <v>733</v>
+      </c>
+      <c r="V82" s="150" t="s">
+        <v>734</v>
+      </c>
+      <c r="W82" s="150" t="s">
+        <v>779</v>
+      </c>
+      <c r="X82" s="150" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y82" s="150" t="s">
+        <v>736</v>
+      </c>
+      <c r="Z82" s="150" t="s">
+        <v>737</v>
+      </c>
+      <c r="AA82" s="150" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="91" spans="2:27">
+      <c r="B91" s="193" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="193" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="193" t="s">
+    <row r="137" spans="1:1">
+      <c r="A137" s="192" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="194" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="193" t="s">
+    <row r="228" spans="2:25">
+      <c r="U228" s="150" t="s">
+        <v>729</v>
+      </c>
+      <c r="V228" s="150" t="s">
+        <v>740</v>
+      </c>
+      <c r="W228" s="150" t="s">
+        <v>741</v>
+      </c>
+      <c r="X228" s="150" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y228" s="150" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="237" spans="2:25">
+      <c r="B237" s="193" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="193"/>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="193" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="192" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="193" t="s">
+    <row r="325" spans="2:2">
+      <c r="B325" s="194" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="353" spans="20:22">
+      <c r="T353" s="150" t="s">
+        <v>729</v>
+      </c>
+      <c r="U353" s="150" t="s">
+        <v>781</v>
+      </c>
+      <c r="V353" s="150" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" s="193" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="192" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188" s="194" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2">
-      <c r="B233" s="193" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2">
-      <c r="B257" s="193"/>
-    </row>
-    <row r="258" spans="2:2">
-      <c r="B258" s="193" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" s="192" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="321" spans="2:2">
-      <c r="B321" s="194" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="371" spans="2:2">
-      <c r="B371" s="193" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="391" spans="2:2">
-      <c r="B391" s="193" t="s">
-        <v>769</v>
+    <row r="395" spans="2:2">
+      <c r="B395" s="193" t="s">
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -28495,21 +29792,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC0EF44-BA1B-4845-8F94-E771160AC34A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="193" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="193"/>
       <c r="B2" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -28524,317 +29819,370 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="196"/>
+    <col min="1" max="16384" width="8.88671875" style="294"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="195" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="293" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1" s="293"/>
+      <c r="C1" s="293"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="293"/>
+      <c r="I1" s="293"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="294" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="295"/>
+      <c r="B3" s="295" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="294" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="294" t="s">
+        <v>752</v>
+      </c>
+      <c r="E6" s="294" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="294" t="s">
+        <v>753</v>
+      </c>
+      <c r="E7" s="294" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="296" t="s">
+        <v>784</v>
+      </c>
+      <c r="C8" s="296"/>
+      <c r="D8" s="296"/>
+      <c r="E8" s="296"/>
+      <c r="F8" s="296"/>
+      <c r="G8" s="296"/>
+      <c r="H8" s="296"/>
+      <c r="I8" s="296"/>
+      <c r="J8" s="296"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="294" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="296" t="s">
+        <v>792</v>
+      </c>
+      <c r="C10" s="296"/>
+      <c r="D10" s="296"/>
+      <c r="E10" s="296"/>
+      <c r="F10" s="296"/>
+      <c r="G10" s="296"/>
+      <c r="H10" s="296"/>
+      <c r="I10" s="296"/>
+      <c r="J10" s="296"/>
+      <c r="K10" s="296"/>
+      <c r="L10" s="296"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="294" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="294" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="295"/>
+      <c r="C14" s="295" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15" s="294" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="D16" s="294" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="C17" s="294" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="D18" s="294" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="294" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="C21" s="294" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="C22" s="294" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="C23" s="294" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="293" t="s">
         <v>745</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="196" t="s">
+      <c r="B25" s="293"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="294" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="294" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="294" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="294" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="294" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="197"/>
-      <c r="B3" s="197" t="s">
+    <row r="31" spans="1:9">
+      <c r="B31" s="294" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="296" t="s">
+        <v>793</v>
+      </c>
+      <c r="C32" s="296"/>
+      <c r="D32" s="296"/>
+      <c r="E32" s="296"/>
+      <c r="F32" s="296"/>
+      <c r="G32" s="296"/>
+      <c r="H32" s="296"/>
+      <c r="I32" s="296"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="293" t="s">
+        <v>746</v>
+      </c>
+      <c r="B34" s="293"/>
+      <c r="C34" s="293"/>
+      <c r="D34" s="293"/>
+      <c r="E34" s="293"/>
+      <c r="F34" s="293"/>
+      <c r="G34" s="293"/>
+      <c r="H34" s="293"/>
+      <c r="I34" s="293"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="294" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="196" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="196" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="196" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="296" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="196" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="207" t="s">
-        <v>775</v>
-      </c>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="207"/>
-      <c r="H10" s="207"/>
-      <c r="I10" s="207"/>
-      <c r="J10" s="207"/>
-      <c r="K10" s="207"/>
-      <c r="L10" s="207"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" s="196" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13" s="196" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="197"/>
-      <c r="C14" s="197" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="C15" s="196" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="D16" s="207" t="s">
-        <v>776</v>
-      </c>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="207"/>
-      <c r="K16" s="207"/>
-      <c r="L16" s="207"/>
-      <c r="M16" s="207"/>
-      <c r="N16" s="207"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="196" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="195" t="s">
-        <v>746</v>
-      </c>
-      <c r="B20" s="195"/>
-      <c r="C20" s="195"/>
-      <c r="D20" s="195"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="195"/>
-      <c r="I20" s="195"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="196" t="s">
+    <row r="36" spans="1:13">
+      <c r="B36" s="294" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="294" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38" s="294" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="B39" s="296" t="s">
+        <v>785</v>
+      </c>
+      <c r="C39" s="296"/>
+      <c r="D39" s="296"/>
+      <c r="E39" s="296"/>
+      <c r="F39" s="296"/>
+      <c r="G39" s="296"/>
+      <c r="H39" s="296"/>
+      <c r="I39" s="296"/>
+      <c r="J39" s="296"/>
+      <c r="K39" s="296"/>
+      <c r="L39" s="296"/>
+      <c r="M39" s="296"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="294" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="196" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="196" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="B24" s="196" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="196" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="196" t="s">
+    <row r="42" spans="1:13">
+      <c r="B42" s="296" t="s">
+        <v>794</v>
+      </c>
+      <c r="C42" s="296"/>
+      <c r="D42" s="296"/>
+      <c r="E42" s="296"/>
+      <c r="F42" s="296"/>
+      <c r="G42" s="296"/>
+      <c r="H42" s="296"/>
+      <c r="I42" s="296"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="293" t="s">
+        <v>747</v>
+      </c>
+      <c r="B44" s="293"/>
+      <c r="C44" s="293"/>
+      <c r="D44" s="293"/>
+      <c r="E44" s="293"/>
+      <c r="F44" s="293"/>
+      <c r="G44" s="293"/>
+      <c r="H44" s="293"/>
+      <c r="I44" s="293"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="294" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="B46" s="294" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="294" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="B48" s="294" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="B49" s="295" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="B50" s="296" t="s">
+        <v>785</v>
+      </c>
+      <c r="C50" s="296"/>
+      <c r="D50" s="296"/>
+      <c r="E50" s="296"/>
+      <c r="F50" s="296"/>
+      <c r="G50" s="296"/>
+      <c r="H50" s="296"/>
+      <c r="I50" s="296"/>
+      <c r="J50" s="296"/>
+      <c r="K50" s="296"/>
+      <c r="L50" s="296"/>
+      <c r="M50" s="296"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="294" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="B52" s="296" t="s">
+        <v>795</v>
+      </c>
+      <c r="C52" s="296"/>
+      <c r="D52" s="296"/>
+      <c r="E52" s="296"/>
+      <c r="F52" s="296"/>
+      <c r="G52" s="296"/>
+      <c r="H52" s="296"/>
+      <c r="I52" s="296"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="294" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="294" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="207" t="s">
-        <v>784</v>
-      </c>
-      <c r="C27" s="207"/>
-      <c r="D27" s="207"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="207"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="195" t="s">
-        <v>747</v>
-      </c>
-      <c r="B29" s="195"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="195"/>
-      <c r="E29" s="195"/>
-      <c r="F29" s="195"/>
-      <c r="G29" s="195"/>
-      <c r="H29" s="195"/>
-      <c r="I29" s="195"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="196" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="196" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="196" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="B33" s="196" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" s="296" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="198" customFormat="1">
-      <c r="B35" s="296"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="196" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="207" t="s">
-        <v>783</v>
-      </c>
-      <c r="C37" s="207"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="207"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="207"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="195" t="s">
-        <v>748</v>
-      </c>
-      <c r="B39" s="195"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="195"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
-      <c r="H39" s="195"/>
-      <c r="I39" s="195"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="196" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="B41" s="196" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="196" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="196" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="B44" s="196" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="196" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="207" t="s">
-        <v>782</v>
-      </c>
-      <c r="C46" s="207"/>
-      <c r="D46" s="207"/>
-      <c r="E46" s="207"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="207"/>
-      <c r="H46" s="207"/>
-      <c r="I46" s="207"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="196" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="196" t="s">
+    <row r="57" spans="1:13">
+      <c r="A57" s="294" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="294" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="196" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="196" t="s">
-        <v>758</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B50:M50"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B39:M39"/>
     <mergeCell ref="B10:L10"/>
-    <mergeCell ref="D16:N16"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B42:I42"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28843,6 +30191,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B506626A-D346-4206-B21A-8CD4ADE011E1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6"/>
+  <sheetData/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA105"/>
   <sheetViews>
@@ -28864,248 +30226,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="12" customHeight="1">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="208" t="s">
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="209"/>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="209"/>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="209"/>
-      <c r="Y1" s="209"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="210"/>
-      <c r="AB1" s="209" t="s">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206"/>
+      <c r="S1" s="206"/>
+      <c r="T1" s="206"/>
+      <c r="U1" s="206"/>
+      <c r="V1" s="206"/>
+      <c r="W1" s="206"/>
+      <c r="X1" s="206"/>
+      <c r="Y1" s="206"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="207"/>
+      <c r="AB1" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="209"/>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="209"/>
-      <c r="AG1" s="209"/>
-      <c r="AH1" s="209"/>
-      <c r="AI1" s="209"/>
-      <c r="AJ1" s="209"/>
-      <c r="AK1" s="209"/>
-      <c r="AL1" s="209"/>
-      <c r="AM1" s="210"/>
-      <c r="AN1" s="214" t="s">
+      <c r="AC1" s="206"/>
+      <c r="AD1" s="206"/>
+      <c r="AE1" s="206"/>
+      <c r="AF1" s="206"/>
+      <c r="AG1" s="206"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="206"/>
+      <c r="AJ1" s="206"/>
+      <c r="AK1" s="206"/>
+      <c r="AL1" s="206"/>
+      <c r="AM1" s="207"/>
+      <c r="AN1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="215"/>
-      <c r="AP1" s="215"/>
-      <c r="AQ1" s="215"/>
-      <c r="AR1" s="215"/>
-      <c r="AS1" s="215"/>
-      <c r="AT1" s="216"/>
-      <c r="AU1" s="214" t="s">
+      <c r="AO1" s="212"/>
+      <c r="AP1" s="212"/>
+      <c r="AQ1" s="212"/>
+      <c r="AR1" s="212"/>
+      <c r="AS1" s="212"/>
+      <c r="AT1" s="213"/>
+      <c r="AU1" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="AV1" s="215"/>
-      <c r="AW1" s="215"/>
-      <c r="AX1" s="215"/>
-      <c r="AY1" s="215"/>
-      <c r="AZ1" s="216"/>
+      <c r="AV1" s="212"/>
+      <c r="AW1" s="212"/>
+      <c r="AX1" s="212"/>
+      <c r="AY1" s="212"/>
+      <c r="AZ1" s="213"/>
     </row>
     <row r="2" spans="1:52" ht="12" customHeight="1">
-      <c r="A2" s="211"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="212"/>
-      <c r="AD2" s="212"/>
-      <c r="AE2" s="212"/>
-      <c r="AF2" s="212"/>
-      <c r="AG2" s="212"/>
-      <c r="AH2" s="212"/>
-      <c r="AI2" s="212"/>
-      <c r="AJ2" s="212"/>
-      <c r="AK2" s="212"/>
-      <c r="AL2" s="212"/>
-      <c r="AM2" s="213"/>
-      <c r="AN2" s="214" t="s">
+      <c r="A2" s="208"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="210"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="209"/>
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="209"/>
+      <c r="AG2" s="209"/>
+      <c r="AH2" s="209"/>
+      <c r="AI2" s="209"/>
+      <c r="AJ2" s="209"/>
+      <c r="AK2" s="209"/>
+      <c r="AL2" s="209"/>
+      <c r="AM2" s="210"/>
+      <c r="AN2" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="AO2" s="215"/>
-      <c r="AP2" s="215"/>
-      <c r="AQ2" s="215"/>
-      <c r="AR2" s="215"/>
-      <c r="AS2" s="215"/>
-      <c r="AT2" s="216"/>
-      <c r="AU2" s="214" t="s">
+      <c r="AO2" s="212"/>
+      <c r="AP2" s="212"/>
+      <c r="AQ2" s="212"/>
+      <c r="AR2" s="212"/>
+      <c r="AS2" s="212"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="215"/>
-      <c r="AW2" s="215"/>
-      <c r="AX2" s="215"/>
-      <c r="AY2" s="215"/>
-      <c r="AZ2" s="216"/>
+      <c r="AV2" s="212"/>
+      <c r="AW2" s="212"/>
+      <c r="AX2" s="212"/>
+      <c r="AY2" s="212"/>
+      <c r="AZ2" s="213"/>
     </row>
     <row r="3" spans="1:52" ht="12" customHeight="1">
-      <c r="A3" s="223" t="s">
+      <c r="A3" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="225"/>
-      <c r="O3" s="223" t="s">
+      <c r="B3" s="221"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="224"/>
-      <c r="Q3" s="224"/>
-      <c r="R3" s="224"/>
-      <c r="S3" s="224"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224"/>
-      <c r="W3" s="224"/>
-      <c r="X3" s="224"/>
-      <c r="Y3" s="224"/>
-      <c r="Z3" s="224"/>
-      <c r="AA3" s="225"/>
-      <c r="AB3" s="229" t="s">
+      <c r="P3" s="221"/>
+      <c r="Q3" s="221"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="222"/>
+      <c r="AB3" s="226" t="s">
         <v>470</v>
       </c>
-      <c r="AC3" s="229"/>
-      <c r="AD3" s="229"/>
-      <c r="AE3" s="229"/>
-      <c r="AF3" s="229"/>
-      <c r="AG3" s="229"/>
-      <c r="AH3" s="229"/>
-      <c r="AI3" s="229"/>
-      <c r="AJ3" s="229"/>
-      <c r="AK3" s="229"/>
-      <c r="AL3" s="229"/>
-      <c r="AM3" s="230"/>
-      <c r="AN3" s="233" t="s">
+      <c r="AC3" s="226"/>
+      <c r="AD3" s="226"/>
+      <c r="AE3" s="226"/>
+      <c r="AF3" s="226"/>
+      <c r="AG3" s="226"/>
+      <c r="AH3" s="226"/>
+      <c r="AI3" s="226"/>
+      <c r="AJ3" s="226"/>
+      <c r="AK3" s="226"/>
+      <c r="AL3" s="226"/>
+      <c r="AM3" s="227"/>
+      <c r="AN3" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="234"/>
-      <c r="AP3" s="234"/>
-      <c r="AQ3" s="234"/>
-      <c r="AR3" s="234"/>
-      <c r="AS3" s="234"/>
-      <c r="AT3" s="235"/>
-      <c r="AU3" s="236" t="s">
+      <c r="AO3" s="231"/>
+      <c r="AP3" s="231"/>
+      <c r="AQ3" s="231"/>
+      <c r="AR3" s="231"/>
+      <c r="AS3" s="231"/>
+      <c r="AT3" s="232"/>
+      <c r="AU3" s="233" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="234"/>
-      <c r="AW3" s="234"/>
-      <c r="AX3" s="234"/>
-      <c r="AY3" s="234"/>
-      <c r="AZ3" s="235"/>
+      <c r="AV3" s="231"/>
+      <c r="AW3" s="231"/>
+      <c r="AX3" s="231"/>
+      <c r="AY3" s="231"/>
+      <c r="AZ3" s="232"/>
     </row>
     <row r="4" spans="1:52" ht="12" customHeight="1">
-      <c r="A4" s="226"/>
-      <c r="B4" s="227"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="227"/>
-      <c r="K4" s="227"/>
-      <c r="L4" s="227"/>
-      <c r="M4" s="227"/>
-      <c r="N4" s="228"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="227"/>
-      <c r="Q4" s="227"/>
-      <c r="R4" s="227"/>
-      <c r="S4" s="227"/>
-      <c r="T4" s="227"/>
-      <c r="U4" s="227"/>
-      <c r="V4" s="227"/>
-      <c r="W4" s="227"/>
-      <c r="X4" s="227"/>
-      <c r="Y4" s="227"/>
-      <c r="Z4" s="227"/>
-      <c r="AA4" s="228"/>
-      <c r="AB4" s="231"/>
-      <c r="AC4" s="231"/>
-      <c r="AD4" s="231"/>
-      <c r="AE4" s="231"/>
-      <c r="AF4" s="231"/>
-      <c r="AG4" s="231"/>
-      <c r="AH4" s="231"/>
-      <c r="AI4" s="231"/>
-      <c r="AJ4" s="231"/>
-      <c r="AK4" s="231"/>
-      <c r="AL4" s="231"/>
-      <c r="AM4" s="232"/>
-      <c r="AN4" s="237">
+      <c r="A4" s="223"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="224"/>
+      <c r="M4" s="224"/>
+      <c r="N4" s="225"/>
+      <c r="O4" s="223"/>
+      <c r="P4" s="224"/>
+      <c r="Q4" s="224"/>
+      <c r="R4" s="224"/>
+      <c r="S4" s="224"/>
+      <c r="T4" s="224"/>
+      <c r="U4" s="224"/>
+      <c r="V4" s="224"/>
+      <c r="W4" s="224"/>
+      <c r="X4" s="224"/>
+      <c r="Y4" s="224"/>
+      <c r="Z4" s="224"/>
+      <c r="AA4" s="225"/>
+      <c r="AB4" s="228"/>
+      <c r="AC4" s="228"/>
+      <c r="AD4" s="228"/>
+      <c r="AE4" s="228"/>
+      <c r="AF4" s="228"/>
+      <c r="AG4" s="228"/>
+      <c r="AH4" s="228"/>
+      <c r="AI4" s="228"/>
+      <c r="AJ4" s="228"/>
+      <c r="AK4" s="228"/>
+      <c r="AL4" s="228"/>
+      <c r="AM4" s="229"/>
+      <c r="AN4" s="234">
         <v>42928</v>
       </c>
-      <c r="AO4" s="234"/>
-      <c r="AP4" s="234"/>
-      <c r="AQ4" s="234"/>
-      <c r="AR4" s="234"/>
-      <c r="AS4" s="234"/>
-      <c r="AT4" s="235"/>
-      <c r="AU4" s="237" t="s">
+      <c r="AO4" s="231"/>
+      <c r="AP4" s="231"/>
+      <c r="AQ4" s="231"/>
+      <c r="AR4" s="231"/>
+      <c r="AS4" s="231"/>
+      <c r="AT4" s="232"/>
+      <c r="AU4" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="AV4" s="238"/>
-      <c r="AW4" s="238"/>
-      <c r="AX4" s="238"/>
-      <c r="AY4" s="238"/>
-      <c r="AZ4" s="239"/>
+      <c r="AV4" s="235"/>
+      <c r="AW4" s="235"/>
+      <c r="AX4" s="235"/>
+      <c r="AY4" s="235"/>
+      <c r="AZ4" s="236"/>
     </row>
     <row r="5" spans="1:52" ht="12" customHeight="1">
       <c r="A5" s="56"/>
@@ -29162,60 +30524,60 @@
       <c r="AZ5" s="58"/>
     </row>
     <row r="6" spans="1:52" ht="12" customHeight="1">
-      <c r="A6" s="220" t="s">
+      <c r="A6" s="217" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="221"/>
-      <c r="L6" s="221"/>
-      <c r="M6" s="221"/>
-      <c r="N6" s="221"/>
-      <c r="O6" s="221"/>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="221"/>
-      <c r="S6" s="221"/>
-      <c r="T6" s="221"/>
-      <c r="U6" s="221"/>
-      <c r="V6" s="221"/>
-      <c r="W6" s="221"/>
-      <c r="X6" s="221"/>
-      <c r="Y6" s="221"/>
-      <c r="Z6" s="221"/>
-      <c r="AA6" s="221"/>
-      <c r="AB6" s="221"/>
-      <c r="AC6" s="221"/>
-      <c r="AD6" s="221"/>
-      <c r="AE6" s="221"/>
-      <c r="AF6" s="221"/>
-      <c r="AG6" s="221"/>
-      <c r="AH6" s="221"/>
-      <c r="AI6" s="221"/>
-      <c r="AJ6" s="221"/>
-      <c r="AK6" s="221"/>
-      <c r="AL6" s="221"/>
-      <c r="AM6" s="221"/>
-      <c r="AN6" s="221"/>
-      <c r="AO6" s="221"/>
-      <c r="AP6" s="221"/>
-      <c r="AQ6" s="221"/>
-      <c r="AR6" s="221"/>
-      <c r="AS6" s="221"/>
-      <c r="AT6" s="221"/>
-      <c r="AU6" s="221"/>
-      <c r="AV6" s="221"/>
-      <c r="AW6" s="221"/>
-      <c r="AX6" s="221"/>
-      <c r="AY6" s="221"/>
-      <c r="AZ6" s="222"/>
+      <c r="B6" s="218"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="218"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="218"/>
+      <c r="N6" s="218"/>
+      <c r="O6" s="218"/>
+      <c r="P6" s="218"/>
+      <c r="Q6" s="218"/>
+      <c r="R6" s="218"/>
+      <c r="S6" s="218"/>
+      <c r="T6" s="218"/>
+      <c r="U6" s="218"/>
+      <c r="V6" s="218"/>
+      <c r="W6" s="218"/>
+      <c r="X6" s="218"/>
+      <c r="Y6" s="218"/>
+      <c r="Z6" s="218"/>
+      <c r="AA6" s="218"/>
+      <c r="AB6" s="218"/>
+      <c r="AC6" s="218"/>
+      <c r="AD6" s="218"/>
+      <c r="AE6" s="218"/>
+      <c r="AF6" s="218"/>
+      <c r="AG6" s="218"/>
+      <c r="AH6" s="218"/>
+      <c r="AI6" s="218"/>
+      <c r="AJ6" s="218"/>
+      <c r="AK6" s="218"/>
+      <c r="AL6" s="218"/>
+      <c r="AM6" s="218"/>
+      <c r="AN6" s="218"/>
+      <c r="AO6" s="218"/>
+      <c r="AP6" s="218"/>
+      <c r="AQ6" s="218"/>
+      <c r="AR6" s="218"/>
+      <c r="AS6" s="218"/>
+      <c r="AT6" s="218"/>
+      <c r="AU6" s="218"/>
+      <c r="AV6" s="218"/>
+      <c r="AW6" s="218"/>
+      <c r="AX6" s="218"/>
+      <c r="AY6" s="218"/>
+      <c r="AZ6" s="219"/>
     </row>
     <row r="7" spans="1:52" ht="11.4" customHeight="1">
       <c r="A7" s="50"/>
@@ -32421,42 +33783,42 @@
       <c r="K64" s="54"/>
       <c r="L64" s="54"/>
       <c r="M64" s="54"/>
-      <c r="N64" s="217" t="s">
+      <c r="N64" s="214" t="s">
         <v>621</v>
       </c>
-      <c r="O64" s="218"/>
-      <c r="P64" s="218"/>
-      <c r="Q64" s="218"/>
-      <c r="R64" s="218"/>
-      <c r="S64" s="218"/>
-      <c r="T64" s="218"/>
-      <c r="U64" s="218"/>
-      <c r="V64" s="218"/>
-      <c r="W64" s="218"/>
-      <c r="X64" s="218"/>
-      <c r="Y64" s="218"/>
-      <c r="Z64" s="218"/>
-      <c r="AA64" s="218"/>
-      <c r="AB64" s="218"/>
-      <c r="AC64" s="218"/>
-      <c r="AD64" s="218"/>
-      <c r="AE64" s="218"/>
-      <c r="AF64" s="218"/>
-      <c r="AG64" s="218"/>
-      <c r="AH64" s="218"/>
-      <c r="AI64" s="218"/>
-      <c r="AJ64" s="218"/>
-      <c r="AK64" s="218"/>
-      <c r="AL64" s="218"/>
-      <c r="AM64" s="218"/>
-      <c r="AN64" s="218"/>
-      <c r="AO64" s="218"/>
-      <c r="AP64" s="218"/>
-      <c r="AQ64" s="218"/>
-      <c r="AR64" s="218"/>
-      <c r="AS64" s="218"/>
-      <c r="AT64" s="218"/>
-      <c r="AU64" s="219"/>
+      <c r="O64" s="215"/>
+      <c r="P64" s="215"/>
+      <c r="Q64" s="215"/>
+      <c r="R64" s="215"/>
+      <c r="S64" s="215"/>
+      <c r="T64" s="215"/>
+      <c r="U64" s="215"/>
+      <c r="V64" s="215"/>
+      <c r="W64" s="215"/>
+      <c r="X64" s="215"/>
+      <c r="Y64" s="215"/>
+      <c r="Z64" s="215"/>
+      <c r="AA64" s="215"/>
+      <c r="AB64" s="215"/>
+      <c r="AC64" s="215"/>
+      <c r="AD64" s="215"/>
+      <c r="AE64" s="215"/>
+      <c r="AF64" s="215"/>
+      <c r="AG64" s="215"/>
+      <c r="AH64" s="215"/>
+      <c r="AI64" s="215"/>
+      <c r="AJ64" s="215"/>
+      <c r="AK64" s="215"/>
+      <c r="AL64" s="215"/>
+      <c r="AM64" s="215"/>
+      <c r="AN64" s="215"/>
+      <c r="AO64" s="215"/>
+      <c r="AP64" s="215"/>
+      <c r="AQ64" s="215"/>
+      <c r="AR64" s="215"/>
+      <c r="AS64" s="215"/>
+      <c r="AT64" s="215"/>
+      <c r="AU64" s="216"/>
       <c r="AV64" s="54"/>
       <c r="AW64" s="54"/>
       <c r="AX64" s="54"/>
@@ -34773,12 +36135,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BA51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ14" sqref="AQ14"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" customHeight="1"/>
@@ -34792,248 +36154,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="12" customHeight="1">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="208" t="s">
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="209"/>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="209"/>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="209"/>
-      <c r="Y1" s="209"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="210"/>
-      <c r="AB1" s="209" t="s">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206"/>
+      <c r="S1" s="206"/>
+      <c r="T1" s="206"/>
+      <c r="U1" s="206"/>
+      <c r="V1" s="206"/>
+      <c r="W1" s="206"/>
+      <c r="X1" s="206"/>
+      <c r="Y1" s="206"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="207"/>
+      <c r="AB1" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="209"/>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="209"/>
-      <c r="AG1" s="209"/>
-      <c r="AH1" s="209"/>
-      <c r="AI1" s="209"/>
-      <c r="AJ1" s="209"/>
-      <c r="AK1" s="209"/>
-      <c r="AL1" s="209"/>
-      <c r="AM1" s="210"/>
-      <c r="AN1" s="214" t="s">
+      <c r="AC1" s="206"/>
+      <c r="AD1" s="206"/>
+      <c r="AE1" s="206"/>
+      <c r="AF1" s="206"/>
+      <c r="AG1" s="206"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="206"/>
+      <c r="AJ1" s="206"/>
+      <c r="AK1" s="206"/>
+      <c r="AL1" s="206"/>
+      <c r="AM1" s="207"/>
+      <c r="AN1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="215"/>
-      <c r="AP1" s="215"/>
-      <c r="AQ1" s="215"/>
-      <c r="AR1" s="215"/>
-      <c r="AS1" s="215"/>
-      <c r="AT1" s="216"/>
-      <c r="AU1" s="214" t="s">
+      <c r="AO1" s="212"/>
+      <c r="AP1" s="212"/>
+      <c r="AQ1" s="212"/>
+      <c r="AR1" s="212"/>
+      <c r="AS1" s="212"/>
+      <c r="AT1" s="213"/>
+      <c r="AU1" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="AV1" s="215"/>
-      <c r="AW1" s="215"/>
-      <c r="AX1" s="215"/>
-      <c r="AY1" s="215"/>
-      <c r="AZ1" s="216"/>
+      <c r="AV1" s="212"/>
+      <c r="AW1" s="212"/>
+      <c r="AX1" s="212"/>
+      <c r="AY1" s="212"/>
+      <c r="AZ1" s="213"/>
     </row>
     <row r="2" spans="1:52" ht="12" customHeight="1">
-      <c r="A2" s="211"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="212"/>
-      <c r="AD2" s="212"/>
-      <c r="AE2" s="212"/>
-      <c r="AF2" s="212"/>
-      <c r="AG2" s="212"/>
-      <c r="AH2" s="212"/>
-      <c r="AI2" s="212"/>
-      <c r="AJ2" s="212"/>
-      <c r="AK2" s="212"/>
-      <c r="AL2" s="212"/>
-      <c r="AM2" s="213"/>
-      <c r="AN2" s="214" t="s">
+      <c r="A2" s="208"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="210"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="209"/>
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="209"/>
+      <c r="AG2" s="209"/>
+      <c r="AH2" s="209"/>
+      <c r="AI2" s="209"/>
+      <c r="AJ2" s="209"/>
+      <c r="AK2" s="209"/>
+      <c r="AL2" s="209"/>
+      <c r="AM2" s="210"/>
+      <c r="AN2" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="AO2" s="215"/>
-      <c r="AP2" s="215"/>
-      <c r="AQ2" s="215"/>
-      <c r="AR2" s="215"/>
-      <c r="AS2" s="215"/>
-      <c r="AT2" s="216"/>
-      <c r="AU2" s="214" t="s">
+      <c r="AO2" s="212"/>
+      <c r="AP2" s="212"/>
+      <c r="AQ2" s="212"/>
+      <c r="AR2" s="212"/>
+      <c r="AS2" s="212"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="215"/>
-      <c r="AW2" s="215"/>
-      <c r="AX2" s="215"/>
-      <c r="AY2" s="215"/>
-      <c r="AZ2" s="216"/>
+      <c r="AV2" s="212"/>
+      <c r="AW2" s="212"/>
+      <c r="AX2" s="212"/>
+      <c r="AY2" s="212"/>
+      <c r="AZ2" s="213"/>
     </row>
     <row r="3" spans="1:52" ht="12" customHeight="1">
-      <c r="A3" s="223" t="s">
+      <c r="A3" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="225"/>
-      <c r="O3" s="223" t="s">
+      <c r="B3" s="221"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="224"/>
-      <c r="Q3" s="224"/>
-      <c r="R3" s="224"/>
-      <c r="S3" s="224"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224"/>
-      <c r="W3" s="224"/>
-      <c r="X3" s="224"/>
-      <c r="Y3" s="224"/>
-      <c r="Z3" s="224"/>
-      <c r="AA3" s="225"/>
-      <c r="AB3" s="229" t="s">
+      <c r="P3" s="221"/>
+      <c r="Q3" s="221"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="222"/>
+      <c r="AB3" s="226" t="s">
         <v>466</v>
       </c>
-      <c r="AC3" s="229"/>
-      <c r="AD3" s="229"/>
-      <c r="AE3" s="229"/>
-      <c r="AF3" s="229"/>
-      <c r="AG3" s="229"/>
-      <c r="AH3" s="229"/>
-      <c r="AI3" s="229"/>
-      <c r="AJ3" s="229"/>
-      <c r="AK3" s="229"/>
-      <c r="AL3" s="229"/>
-      <c r="AM3" s="230"/>
-      <c r="AN3" s="233" t="s">
+      <c r="AC3" s="226"/>
+      <c r="AD3" s="226"/>
+      <c r="AE3" s="226"/>
+      <c r="AF3" s="226"/>
+      <c r="AG3" s="226"/>
+      <c r="AH3" s="226"/>
+      <c r="AI3" s="226"/>
+      <c r="AJ3" s="226"/>
+      <c r="AK3" s="226"/>
+      <c r="AL3" s="226"/>
+      <c r="AM3" s="227"/>
+      <c r="AN3" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="234"/>
-      <c r="AP3" s="234"/>
-      <c r="AQ3" s="234"/>
-      <c r="AR3" s="234"/>
-      <c r="AS3" s="234"/>
-      <c r="AT3" s="235"/>
-      <c r="AU3" s="236" t="s">
+      <c r="AO3" s="231"/>
+      <c r="AP3" s="231"/>
+      <c r="AQ3" s="231"/>
+      <c r="AR3" s="231"/>
+      <c r="AS3" s="231"/>
+      <c r="AT3" s="232"/>
+      <c r="AU3" s="233" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="234"/>
-      <c r="AW3" s="234"/>
-      <c r="AX3" s="234"/>
-      <c r="AY3" s="234"/>
-      <c r="AZ3" s="235"/>
+      <c r="AV3" s="231"/>
+      <c r="AW3" s="231"/>
+      <c r="AX3" s="231"/>
+      <c r="AY3" s="231"/>
+      <c r="AZ3" s="232"/>
     </row>
     <row r="4" spans="1:52" ht="12" customHeight="1">
-      <c r="A4" s="226"/>
-      <c r="B4" s="227"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="227"/>
-      <c r="K4" s="227"/>
-      <c r="L4" s="227"/>
-      <c r="M4" s="227"/>
-      <c r="N4" s="228"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="227"/>
-      <c r="Q4" s="227"/>
-      <c r="R4" s="227"/>
-      <c r="S4" s="227"/>
-      <c r="T4" s="227"/>
-      <c r="U4" s="227"/>
-      <c r="V4" s="227"/>
-      <c r="W4" s="227"/>
-      <c r="X4" s="227"/>
-      <c r="Y4" s="227"/>
-      <c r="Z4" s="227"/>
-      <c r="AA4" s="228"/>
-      <c r="AB4" s="231"/>
-      <c r="AC4" s="231"/>
-      <c r="AD4" s="231"/>
-      <c r="AE4" s="231"/>
-      <c r="AF4" s="231"/>
-      <c r="AG4" s="231"/>
-      <c r="AH4" s="231"/>
-      <c r="AI4" s="231"/>
-      <c r="AJ4" s="231"/>
-      <c r="AK4" s="231"/>
-      <c r="AL4" s="231"/>
-      <c r="AM4" s="232"/>
-      <c r="AN4" s="237">
+      <c r="A4" s="223"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="224"/>
+      <c r="M4" s="224"/>
+      <c r="N4" s="225"/>
+      <c r="O4" s="223"/>
+      <c r="P4" s="224"/>
+      <c r="Q4" s="224"/>
+      <c r="R4" s="224"/>
+      <c r="S4" s="224"/>
+      <c r="T4" s="224"/>
+      <c r="U4" s="224"/>
+      <c r="V4" s="224"/>
+      <c r="W4" s="224"/>
+      <c r="X4" s="224"/>
+      <c r="Y4" s="224"/>
+      <c r="Z4" s="224"/>
+      <c r="AA4" s="225"/>
+      <c r="AB4" s="228"/>
+      <c r="AC4" s="228"/>
+      <c r="AD4" s="228"/>
+      <c r="AE4" s="228"/>
+      <c r="AF4" s="228"/>
+      <c r="AG4" s="228"/>
+      <c r="AH4" s="228"/>
+      <c r="AI4" s="228"/>
+      <c r="AJ4" s="228"/>
+      <c r="AK4" s="228"/>
+      <c r="AL4" s="228"/>
+      <c r="AM4" s="229"/>
+      <c r="AN4" s="234">
         <v>42928</v>
       </c>
-      <c r="AO4" s="234"/>
-      <c r="AP4" s="234"/>
-      <c r="AQ4" s="234"/>
-      <c r="AR4" s="234"/>
-      <c r="AS4" s="234"/>
-      <c r="AT4" s="235"/>
-      <c r="AU4" s="237" t="s">
+      <c r="AO4" s="231"/>
+      <c r="AP4" s="231"/>
+      <c r="AQ4" s="231"/>
+      <c r="AR4" s="231"/>
+      <c r="AS4" s="231"/>
+      <c r="AT4" s="232"/>
+      <c r="AU4" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="AV4" s="238"/>
-      <c r="AW4" s="238"/>
-      <c r="AX4" s="238"/>
-      <c r="AY4" s="238"/>
-      <c r="AZ4" s="239"/>
+      <c r="AV4" s="235"/>
+      <c r="AW4" s="235"/>
+      <c r="AX4" s="235"/>
+      <c r="AY4" s="235"/>
+      <c r="AZ4" s="236"/>
     </row>
     <row r="5" spans="1:52" ht="12" customHeight="1">
       <c r="A5" s="56"/>
@@ -35090,60 +36452,60 @@
       <c r="AZ5" s="58"/>
     </row>
     <row r="6" spans="1:52" ht="12" customHeight="1">
-      <c r="A6" s="220" t="s">
+      <c r="A6" s="217" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="221"/>
-      <c r="L6" s="221"/>
-      <c r="M6" s="221"/>
-      <c r="N6" s="221"/>
-      <c r="O6" s="221"/>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="221"/>
-      <c r="S6" s="221"/>
-      <c r="T6" s="221"/>
-      <c r="U6" s="221"/>
-      <c r="V6" s="221"/>
-      <c r="W6" s="221"/>
-      <c r="X6" s="221"/>
-      <c r="Y6" s="221"/>
-      <c r="Z6" s="221"/>
-      <c r="AA6" s="221"/>
-      <c r="AB6" s="221"/>
-      <c r="AC6" s="221"/>
-      <c r="AD6" s="221"/>
-      <c r="AE6" s="221"/>
-      <c r="AF6" s="221"/>
-      <c r="AG6" s="221"/>
-      <c r="AH6" s="221"/>
-      <c r="AI6" s="221"/>
-      <c r="AJ6" s="221"/>
-      <c r="AK6" s="221"/>
-      <c r="AL6" s="221"/>
-      <c r="AM6" s="221"/>
-      <c r="AN6" s="221"/>
-      <c r="AO6" s="221"/>
-      <c r="AP6" s="221"/>
-      <c r="AQ6" s="221"/>
-      <c r="AR6" s="221"/>
-      <c r="AS6" s="221"/>
-      <c r="AT6" s="221"/>
-      <c r="AU6" s="221"/>
-      <c r="AV6" s="221"/>
-      <c r="AW6" s="221"/>
-      <c r="AX6" s="221"/>
-      <c r="AY6" s="221"/>
-      <c r="AZ6" s="222"/>
+      <c r="B6" s="218"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="218"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="218"/>
+      <c r="N6" s="218"/>
+      <c r="O6" s="218"/>
+      <c r="P6" s="218"/>
+      <c r="Q6" s="218"/>
+      <c r="R6" s="218"/>
+      <c r="S6" s="218"/>
+      <c r="T6" s="218"/>
+      <c r="U6" s="218"/>
+      <c r="V6" s="218"/>
+      <c r="W6" s="218"/>
+      <c r="X6" s="218"/>
+      <c r="Y6" s="218"/>
+      <c r="Z6" s="218"/>
+      <c r="AA6" s="218"/>
+      <c r="AB6" s="218"/>
+      <c r="AC6" s="218"/>
+      <c r="AD6" s="218"/>
+      <c r="AE6" s="218"/>
+      <c r="AF6" s="218"/>
+      <c r="AG6" s="218"/>
+      <c r="AH6" s="218"/>
+      <c r="AI6" s="218"/>
+      <c r="AJ6" s="218"/>
+      <c r="AK6" s="218"/>
+      <c r="AL6" s="218"/>
+      <c r="AM6" s="218"/>
+      <c r="AN6" s="218"/>
+      <c r="AO6" s="218"/>
+      <c r="AP6" s="218"/>
+      <c r="AQ6" s="218"/>
+      <c r="AR6" s="218"/>
+      <c r="AS6" s="218"/>
+      <c r="AT6" s="218"/>
+      <c r="AU6" s="218"/>
+      <c r="AV6" s="218"/>
+      <c r="AW6" s="218"/>
+      <c r="AX6" s="218"/>
+      <c r="AY6" s="218"/>
+      <c r="AZ6" s="219"/>
     </row>
     <row r="7" spans="1:52" ht="11.4" customHeight="1">
       <c r="A7" s="50"/>
@@ -37646,12 +39008,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BA45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AU18" sqref="AU18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" customHeight="1"/>
@@ -37665,248 +39027,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="12" customHeight="1">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="208" t="s">
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="209"/>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="209"/>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="209"/>
-      <c r="Y1" s="209"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="210"/>
-      <c r="AB1" s="209" t="s">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206"/>
+      <c r="S1" s="206"/>
+      <c r="T1" s="206"/>
+      <c r="U1" s="206"/>
+      <c r="V1" s="206"/>
+      <c r="W1" s="206"/>
+      <c r="X1" s="206"/>
+      <c r="Y1" s="206"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="207"/>
+      <c r="AB1" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="209"/>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="209"/>
-      <c r="AG1" s="209"/>
-      <c r="AH1" s="209"/>
-      <c r="AI1" s="209"/>
-      <c r="AJ1" s="209"/>
-      <c r="AK1" s="209"/>
-      <c r="AL1" s="209"/>
-      <c r="AM1" s="210"/>
-      <c r="AN1" s="214" t="s">
+      <c r="AC1" s="206"/>
+      <c r="AD1" s="206"/>
+      <c r="AE1" s="206"/>
+      <c r="AF1" s="206"/>
+      <c r="AG1" s="206"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="206"/>
+      <c r="AJ1" s="206"/>
+      <c r="AK1" s="206"/>
+      <c r="AL1" s="206"/>
+      <c r="AM1" s="207"/>
+      <c r="AN1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="215"/>
-      <c r="AP1" s="215"/>
-      <c r="AQ1" s="215"/>
-      <c r="AR1" s="215"/>
-      <c r="AS1" s="215"/>
-      <c r="AT1" s="216"/>
-      <c r="AU1" s="214" t="s">
+      <c r="AO1" s="212"/>
+      <c r="AP1" s="212"/>
+      <c r="AQ1" s="212"/>
+      <c r="AR1" s="212"/>
+      <c r="AS1" s="212"/>
+      <c r="AT1" s="213"/>
+      <c r="AU1" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="AV1" s="215"/>
-      <c r="AW1" s="215"/>
-      <c r="AX1" s="215"/>
-      <c r="AY1" s="215"/>
-      <c r="AZ1" s="216"/>
+      <c r="AV1" s="212"/>
+      <c r="AW1" s="212"/>
+      <c r="AX1" s="212"/>
+      <c r="AY1" s="212"/>
+      <c r="AZ1" s="213"/>
     </row>
     <row r="2" spans="1:52" ht="12" customHeight="1">
-      <c r="A2" s="211"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="212"/>
-      <c r="AD2" s="212"/>
-      <c r="AE2" s="212"/>
-      <c r="AF2" s="212"/>
-      <c r="AG2" s="212"/>
-      <c r="AH2" s="212"/>
-      <c r="AI2" s="212"/>
-      <c r="AJ2" s="212"/>
-      <c r="AK2" s="212"/>
-      <c r="AL2" s="212"/>
-      <c r="AM2" s="213"/>
-      <c r="AN2" s="214" t="s">
+      <c r="A2" s="208"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="210"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="209"/>
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="209"/>
+      <c r="AG2" s="209"/>
+      <c r="AH2" s="209"/>
+      <c r="AI2" s="209"/>
+      <c r="AJ2" s="209"/>
+      <c r="AK2" s="209"/>
+      <c r="AL2" s="209"/>
+      <c r="AM2" s="210"/>
+      <c r="AN2" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="AO2" s="215"/>
-      <c r="AP2" s="215"/>
-      <c r="AQ2" s="215"/>
-      <c r="AR2" s="215"/>
-      <c r="AS2" s="215"/>
-      <c r="AT2" s="216"/>
-      <c r="AU2" s="214" t="s">
+      <c r="AO2" s="212"/>
+      <c r="AP2" s="212"/>
+      <c r="AQ2" s="212"/>
+      <c r="AR2" s="212"/>
+      <c r="AS2" s="212"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="215"/>
-      <c r="AW2" s="215"/>
-      <c r="AX2" s="215"/>
-      <c r="AY2" s="215"/>
-      <c r="AZ2" s="216"/>
+      <c r="AV2" s="212"/>
+      <c r="AW2" s="212"/>
+      <c r="AX2" s="212"/>
+      <c r="AY2" s="212"/>
+      <c r="AZ2" s="213"/>
     </row>
     <row r="3" spans="1:52" ht="12" customHeight="1">
-      <c r="A3" s="223" t="s">
+      <c r="A3" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="225"/>
-      <c r="O3" s="223" t="s">
+      <c r="B3" s="221"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="224"/>
-      <c r="Q3" s="224"/>
-      <c r="R3" s="224"/>
-      <c r="S3" s="224"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224"/>
-      <c r="W3" s="224"/>
-      <c r="X3" s="224"/>
-      <c r="Y3" s="224"/>
-      <c r="Z3" s="224"/>
-      <c r="AA3" s="225"/>
-      <c r="AB3" s="229" t="s">
+      <c r="P3" s="221"/>
+      <c r="Q3" s="221"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="222"/>
+      <c r="AB3" s="226" t="s">
         <v>478</v>
       </c>
-      <c r="AC3" s="229"/>
-      <c r="AD3" s="229"/>
-      <c r="AE3" s="229"/>
-      <c r="AF3" s="229"/>
-      <c r="AG3" s="229"/>
-      <c r="AH3" s="229"/>
-      <c r="AI3" s="229"/>
-      <c r="AJ3" s="229"/>
-      <c r="AK3" s="229"/>
-      <c r="AL3" s="229"/>
-      <c r="AM3" s="230"/>
-      <c r="AN3" s="233" t="s">
+      <c r="AC3" s="226"/>
+      <c r="AD3" s="226"/>
+      <c r="AE3" s="226"/>
+      <c r="AF3" s="226"/>
+      <c r="AG3" s="226"/>
+      <c r="AH3" s="226"/>
+      <c r="AI3" s="226"/>
+      <c r="AJ3" s="226"/>
+      <c r="AK3" s="226"/>
+      <c r="AL3" s="226"/>
+      <c r="AM3" s="227"/>
+      <c r="AN3" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="234"/>
-      <c r="AP3" s="234"/>
-      <c r="AQ3" s="234"/>
-      <c r="AR3" s="234"/>
-      <c r="AS3" s="234"/>
-      <c r="AT3" s="235"/>
-      <c r="AU3" s="236" t="s">
+      <c r="AO3" s="231"/>
+      <c r="AP3" s="231"/>
+      <c r="AQ3" s="231"/>
+      <c r="AR3" s="231"/>
+      <c r="AS3" s="231"/>
+      <c r="AT3" s="232"/>
+      <c r="AU3" s="233" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="234"/>
-      <c r="AW3" s="234"/>
-      <c r="AX3" s="234"/>
-      <c r="AY3" s="234"/>
-      <c r="AZ3" s="235"/>
+      <c r="AV3" s="231"/>
+      <c r="AW3" s="231"/>
+      <c r="AX3" s="231"/>
+      <c r="AY3" s="231"/>
+      <c r="AZ3" s="232"/>
     </row>
     <row r="4" spans="1:52" ht="12" customHeight="1">
-      <c r="A4" s="226"/>
-      <c r="B4" s="227"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="227"/>
-      <c r="K4" s="227"/>
-      <c r="L4" s="227"/>
-      <c r="M4" s="227"/>
-      <c r="N4" s="228"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="227"/>
-      <c r="Q4" s="227"/>
-      <c r="R4" s="227"/>
-      <c r="S4" s="227"/>
-      <c r="T4" s="227"/>
-      <c r="U4" s="227"/>
-      <c r="V4" s="227"/>
-      <c r="W4" s="227"/>
-      <c r="X4" s="227"/>
-      <c r="Y4" s="227"/>
-      <c r="Z4" s="227"/>
-      <c r="AA4" s="228"/>
-      <c r="AB4" s="231"/>
-      <c r="AC4" s="231"/>
-      <c r="AD4" s="231"/>
-      <c r="AE4" s="231"/>
-      <c r="AF4" s="231"/>
-      <c r="AG4" s="231"/>
-      <c r="AH4" s="231"/>
-      <c r="AI4" s="231"/>
-      <c r="AJ4" s="231"/>
-      <c r="AK4" s="231"/>
-      <c r="AL4" s="231"/>
-      <c r="AM4" s="232"/>
-      <c r="AN4" s="237">
+      <c r="A4" s="223"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="224"/>
+      <c r="M4" s="224"/>
+      <c r="N4" s="225"/>
+      <c r="O4" s="223"/>
+      <c r="P4" s="224"/>
+      <c r="Q4" s="224"/>
+      <c r="R4" s="224"/>
+      <c r="S4" s="224"/>
+      <c r="T4" s="224"/>
+      <c r="U4" s="224"/>
+      <c r="V4" s="224"/>
+      <c r="W4" s="224"/>
+      <c r="X4" s="224"/>
+      <c r="Y4" s="224"/>
+      <c r="Z4" s="224"/>
+      <c r="AA4" s="225"/>
+      <c r="AB4" s="228"/>
+      <c r="AC4" s="228"/>
+      <c r="AD4" s="228"/>
+      <c r="AE4" s="228"/>
+      <c r="AF4" s="228"/>
+      <c r="AG4" s="228"/>
+      <c r="AH4" s="228"/>
+      <c r="AI4" s="228"/>
+      <c r="AJ4" s="228"/>
+      <c r="AK4" s="228"/>
+      <c r="AL4" s="228"/>
+      <c r="AM4" s="229"/>
+      <c r="AN4" s="234">
         <v>42928</v>
       </c>
-      <c r="AO4" s="234"/>
-      <c r="AP4" s="234"/>
-      <c r="AQ4" s="234"/>
-      <c r="AR4" s="234"/>
-      <c r="AS4" s="234"/>
-      <c r="AT4" s="235"/>
-      <c r="AU4" s="237" t="s">
+      <c r="AO4" s="231"/>
+      <c r="AP4" s="231"/>
+      <c r="AQ4" s="231"/>
+      <c r="AR4" s="231"/>
+      <c r="AS4" s="231"/>
+      <c r="AT4" s="232"/>
+      <c r="AU4" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="AV4" s="238"/>
-      <c r="AW4" s="238"/>
-      <c r="AX4" s="238"/>
-      <c r="AY4" s="238"/>
-      <c r="AZ4" s="239"/>
+      <c r="AV4" s="235"/>
+      <c r="AW4" s="235"/>
+      <c r="AX4" s="235"/>
+      <c r="AY4" s="235"/>
+      <c r="AZ4" s="236"/>
     </row>
     <row r="5" spans="1:52" ht="12" customHeight="1">
       <c r="A5" s="56"/>
@@ -37963,60 +39325,60 @@
       <c r="AZ5" s="58"/>
     </row>
     <row r="6" spans="1:52" ht="12" customHeight="1">
-      <c r="A6" s="220" t="s">
+      <c r="A6" s="217" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="221"/>
-      <c r="L6" s="221"/>
-      <c r="M6" s="221"/>
-      <c r="N6" s="221"/>
-      <c r="O6" s="221"/>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="221"/>
-      <c r="S6" s="221"/>
-      <c r="T6" s="221"/>
-      <c r="U6" s="221"/>
-      <c r="V6" s="221"/>
-      <c r="W6" s="221"/>
-      <c r="X6" s="221"/>
-      <c r="Y6" s="221"/>
-      <c r="Z6" s="221"/>
-      <c r="AA6" s="221"/>
-      <c r="AB6" s="221"/>
-      <c r="AC6" s="221"/>
-      <c r="AD6" s="221"/>
-      <c r="AE6" s="221"/>
-      <c r="AF6" s="221"/>
-      <c r="AG6" s="221"/>
-      <c r="AH6" s="221"/>
-      <c r="AI6" s="221"/>
-      <c r="AJ6" s="221"/>
-      <c r="AK6" s="221"/>
-      <c r="AL6" s="221"/>
-      <c r="AM6" s="221"/>
-      <c r="AN6" s="221"/>
-      <c r="AO6" s="221"/>
-      <c r="AP6" s="221"/>
-      <c r="AQ6" s="221"/>
-      <c r="AR6" s="221"/>
-      <c r="AS6" s="221"/>
-      <c r="AT6" s="221"/>
-      <c r="AU6" s="221"/>
-      <c r="AV6" s="221"/>
-      <c r="AW6" s="221"/>
-      <c r="AX6" s="221"/>
-      <c r="AY6" s="221"/>
-      <c r="AZ6" s="222"/>
+      <c r="B6" s="218"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="218"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="218"/>
+      <c r="N6" s="218"/>
+      <c r="O6" s="218"/>
+      <c r="P6" s="218"/>
+      <c r="Q6" s="218"/>
+      <c r="R6" s="218"/>
+      <c r="S6" s="218"/>
+      <c r="T6" s="218"/>
+      <c r="U6" s="218"/>
+      <c r="V6" s="218"/>
+      <c r="W6" s="218"/>
+      <c r="X6" s="218"/>
+      <c r="Y6" s="218"/>
+      <c r="Z6" s="218"/>
+      <c r="AA6" s="218"/>
+      <c r="AB6" s="218"/>
+      <c r="AC6" s="218"/>
+      <c r="AD6" s="218"/>
+      <c r="AE6" s="218"/>
+      <c r="AF6" s="218"/>
+      <c r="AG6" s="218"/>
+      <c r="AH6" s="218"/>
+      <c r="AI6" s="218"/>
+      <c r="AJ6" s="218"/>
+      <c r="AK6" s="218"/>
+      <c r="AL6" s="218"/>
+      <c r="AM6" s="218"/>
+      <c r="AN6" s="218"/>
+      <c r="AO6" s="218"/>
+      <c r="AP6" s="218"/>
+      <c r="AQ6" s="218"/>
+      <c r="AR6" s="218"/>
+      <c r="AS6" s="218"/>
+      <c r="AT6" s="218"/>
+      <c r="AU6" s="218"/>
+      <c r="AV6" s="218"/>
+      <c r="AW6" s="218"/>
+      <c r="AX6" s="218"/>
+      <c r="AY6" s="218"/>
+      <c r="AZ6" s="219"/>
     </row>
     <row r="7" spans="1:52" ht="11.4" customHeight="1">
       <c r="A7" s="50"/>
@@ -40181,524 +41543,4 @@
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K29"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="17" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="34.77734375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="32" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="116" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="243" t="s">
-        <v>511</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120" t="s">
-        <v>513</v>
-      </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A3" s="243"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="118" t="s">
-        <v>514</v>
-      </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120" t="s">
-        <v>520</v>
-      </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A4" s="243"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="120" t="s">
-        <v>520</v>
-      </c>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A5" s="243"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="120" t="s">
-        <v>520</v>
-      </c>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A6" s="243"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="120" t="s">
-        <v>520</v>
-      </c>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A7" s="243"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120" t="s">
-        <v>520</v>
-      </c>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="243"/>
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="D8" s="121" t="s">
-        <v>523</v>
-      </c>
-      <c r="E8" s="120" t="s">
-        <v>522</v>
-      </c>
-      <c r="F8" s="122" t="s">
-        <v>531</v>
-      </c>
-      <c r="G8" s="119" t="s">
-        <v>524</v>
-      </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="243"/>
-      <c r="B9" s="244"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="118" t="s">
-        <v>526</v>
-      </c>
-      <c r="J9" s="118"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="243"/>
-      <c r="B10" s="245"/>
-      <c r="C10" s="248"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
-      <c r="G10" s="241"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="118" t="s">
-        <v>527</v>
-      </c>
-      <c r="J10" s="118"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="243"/>
-      <c r="B11" s="245"/>
-      <c r="C11" s="248"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="241"/>
-      <c r="G11" s="241"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="243"/>
-      <c r="B12" s="245"/>
-      <c r="C12" s="248"/>
-      <c r="D12" s="241"/>
-      <c r="E12" s="241"/>
-      <c r="F12" s="241"/>
-      <c r="G12" s="241"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="243"/>
-      <c r="B13" s="245"/>
-      <c r="C13" s="248"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="241"/>
-      <c r="F13" s="242"/>
-      <c r="G13" s="242"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="243"/>
-      <c r="B14" s="245"/>
-      <c r="C14" s="248"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="241"/>
-      <c r="F14" s="122" t="s">
-        <v>534</v>
-      </c>
-      <c r="G14" s="119" t="s">
-        <v>532</v>
-      </c>
-      <c r="H14" s="122" t="s">
-        <v>535</v>
-      </c>
-      <c r="I14" s="118" t="s">
-        <v>536</v>
-      </c>
-      <c r="J14" s="120"/>
-      <c r="K14" s="8" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="243"/>
-      <c r="B15" s="245"/>
-      <c r="C15" s="248"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="240"/>
-      <c r="G15" s="240"/>
-      <c r="H15" s="240"/>
-      <c r="I15" s="240"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="8" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="243"/>
-      <c r="B16" s="245"/>
-      <c r="C16" s="248"/>
-      <c r="D16" s="242"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="242"/>
-      <c r="G16" s="242"/>
-      <c r="H16" s="242"/>
-      <c r="I16" s="242"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="8" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="243"/>
-      <c r="B17" s="245"/>
-      <c r="C17" s="248"/>
-      <c r="D17" s="121" t="s">
-        <v>533</v>
-      </c>
-      <c r="E17" s="119" t="s">
-        <v>521</v>
-      </c>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119" t="s">
-        <v>540</v>
-      </c>
-      <c r="H17" s="122"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="243"/>
-      <c r="B18" s="245"/>
-      <c r="C18" s="248"/>
-      <c r="D18" s="240"/>
-      <c r="E18" s="240"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119" t="s">
-        <v>541</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="243"/>
-      <c r="B19" s="245"/>
-      <c r="C19" s="248"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="243"/>
-      <c r="B20" s="245"/>
-      <c r="C20" s="248"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="243"/>
-      <c r="B21" s="245"/>
-      <c r="C21" s="248"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="241"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="243"/>
-      <c r="B22" s="245"/>
-      <c r="C22" s="248"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="241"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="243"/>
-      <c r="B23" s="245"/>
-      <c r="C23" s="248"/>
-      <c r="D23" s="241"/>
-      <c r="E23" s="241"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="120" t="s">
-        <v>542</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="243"/>
-      <c r="B24" s="245"/>
-      <c r="C24" s="248"/>
-      <c r="D24" s="241"/>
-      <c r="E24" s="241"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="243"/>
-      <c r="B25" s="245"/>
-      <c r="C25" s="248"/>
-      <c r="D25" s="241"/>
-      <c r="E25" s="241"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119" t="s">
-        <v>543</v>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="243"/>
-      <c r="B26" s="245"/>
-      <c r="C26" s="248"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119" t="s">
-        <v>544</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="243"/>
-      <c r="B27" s="245"/>
-      <c r="C27" s="248"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="118" t="s">
-        <v>545</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="243"/>
-      <c r="B28" s="245"/>
-      <c r="C28" s="248"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="241"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="118" t="s">
-        <v>546</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="243"/>
-      <c r="B29" s="246"/>
-      <c r="C29" s="249"/>
-      <c r="D29" s="242"/>
-      <c r="E29" s="242"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="118" t="s">
-        <v>547</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="D18:D29"/>
-    <mergeCell ref="E18:E29"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A2:A29"/>
-    <mergeCell ref="B9:B29"/>
-    <mergeCell ref="C9:C29"/>
-    <mergeCell ref="D9:D16"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
-</worksheet>
 </file>